--- a/out/policy_events_2026-02-20.xlsx
+++ b/out/policy_events_2026-02-20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>'트럼프 관세' 첫해 효과 미미했나…작년 美수입 사상 최대&amp;nbsp;&amp;nbsp;연합뉴스트럼프 관세 정책에도...지난해 美 상품 무역적자 사상 최고치&amp;nbsp;&amp;nbsp;조선일보'트럼프 관세'에도 美작년 무역적자 9015억달러…1960년 이후 최대 수준&amp;nbsp;&amp;nbsp;마켓인</t>
+          <t>'트럼프 관세' 첫해 효과 미미했나…작년 美수입 사상 최대&amp;nbsp;&amp;nbsp;연합뉴스트럼프 관세 정책에도...지난해 美 상품 무역적자 사상 최고치&amp;nbsp;&amp;nbsp;조선일보트럼프의 관세 폭탄도 美무역적자 해소 못했다&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,32 +513,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야” - 경기일보</t>
+          <t>멕시코 중앙은행 "한국 등 최대 50% 관세로 인플레 압박" - v.daum.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야”&amp;nbsp;&amp;nbsp;경기일보</t>
+          <t>멕시코 중앙은행 "한국 등 최대 50% 관세로 인플레 압박"&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:50:00 GMT</t>
+          <t>Thu, 19 Feb 2026 21:00:30 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1VS0tkUzFsOHNvZkJ2SU5yeWxWMTNFMHhzY25IWE9oYjRaN2FuS1BOVlVLTUpQcl84LWlnQXZ4M2h3UlJDTEtoNUtZVzBObGJUdnVIbERPMmdKRVE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE1IOUxZYkZueGZGMUk4aldyYXFGT3NSb1JNQkViRW9qNkFKTzFCaDNRSTQyaEtLdHRmWnNaTGY0Q19FaGhrbDZTWHRFczM0SnM?oc=5</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -550,32 +550,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>장동혁 "이재명 대통령 SNS 답하느라 과로...관세 문제는?" - YTN</t>
+          <t>멕시코 중앙은행 "한국·중국 등 상대 관세로 인플레 압박" - YTN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>장동혁 "이재명 대통령 SNS 답하느라 과로...관세 문제는?"&amp;nbsp;&amp;nbsp;YTN</t>
+          <t>멕시코 중앙은행 "한국·중국 등 상대 관세로 인플레 압박"&amp;nbsp;&amp;nbsp;YTN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 17:08:00 GMT</t>
+          <t>Thu, 19 Feb 2026 20:45:00 GMT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFBlVFJXV1JyeWhoclNuVGIzVTFvQ1oyMml6OF9lMDlpY19CanpqWXhrWkw5RXcwb2tDb1daTmxVWjI4QmxkblBodGVmTzB5MXd3X1NXWFdZSVBWbkNtaEHSAYMBQVVfeXFMUFp2UlZtVGpRN1BRQjRVekFJanNaRndXNzI1SVUzdHVmYlJiLWtFVUtkdXNYRy1VcGEyT2xqMG1wV0RPNDRSdlJiS21aOFRCUXE1RzYxMU9CWGgxbG4yc2NlcjVwQ201SEVvZUI3ZmM0RWV3MjluTG94eUNYeWM2akhWZGs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE12UkR1TjJoUjdaeWFCdmpSSTdNTk9rYjZtaHRxWVczT1Focm42eFVCdXNzcU05Um1VdWE2bkEtZFhBWXFwX1gtSTNydG1BMm5CeExnVmF6S1RkYno1SlHSAYMBQVVfeXFMUGxZWkhMcXl0Nk04QVQzUHJsYUpiR3NTSTBwU2M0d2xVVi1EV05aemdqRDc3d1RpVTdfX1FqVlN6S2xVZ053TUZ5TE9wTDRZREtXQUlIckpLZVU3MVBDMHlmaEQzWmRsMEtGMTY0cWZ5WW9EemxMVS1EWUFTYnROSEpVRVE?oc=5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -587,22 +587,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>장동혁 "李대통령 SNS에 부동산 말고 관세도 담겨야" - edaily.co.kr</t>
+          <t>멕시코 중앙은행 "韓·中 등 상대 관세로 인플레 압박" - 연합뉴스</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>장동혁 "李대통령 SNS에 부동산 말고 관세도 담겨야"&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
+          <t>멕시코 중앙은행 "韓·中 등 상대 관세로 인플레 압박"&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:31:34 GMT</t>
+          <t>Thu, 19 Feb 2026 20:30:09 GMT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxNQXZsS2plek55SjRIYUdVbnQ4VWoxczZYVVBKc1YtakpxTnF6WFhCakRMVzE3bXBZT0htc2RPNlhuVVpia2V6ajFJWnItWE9vSzBjaGJSSjBuLXJ3MnlrUHdlQ1VoSW5LZGtwNTR3OG9Hd08zLUZXX0xfNXRpNFU0SQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE8xWXZ2R1RHZ1A1QlVtSnFMOHNFMDgzQ1FfOW56Zi1QZU9scWJEOURBMk1ycktYbGxyOVZmdGVYeGpNdDZnLVBsTDR2di1qWGx3TGV3X1A4Zk5md2_SAWBBVV95cUxNMlUxaGR6Rkh6UWdxOWwwbjk0ZjBXd0tfQ1pBYWlyd05ldlFOd2U4YjZpc2Jua000LUhPQ1dfU2FOTkR2WXVaUGc2ZHVqQkhmbk9vRnRWXy04ellpV0hPV1Y?oc=5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -624,22 +624,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나 - 마켓인</t>
+          <t>[단독]美, 25% 관세 예고 前 ‘LNG터미널’ 투자 요구 - 동아일보</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나&amp;nbsp;&amp;nbsp;마켓인</t>
+          <t>[단독]美, 25% 관세 예고 前 ‘LNG터미널’ 투자 요구&amp;nbsp;&amp;nbsp;동아일보</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 08:42:51 GMT</t>
+          <t>Thu, 19 Feb 2026 19:30:00 GMT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1YT1J0QlFtUUt0T0dRSkZxSU5lUEJuSkFjYTZzVjhHbG5ibkRCN2poSUFuYWhMd3pKSnlKNUNYc2NXTkZfanpJbXBFSGpEZGw2Y3pfc2ExenBhZTFVUlBITlY0cmZMWHZIYUVUSUFGQUlodUE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMid0FVX3lxTE5Wd0xEbXZsWTV0TldfS2Y3Mm5yV055TXNTc05COWthVjhOR1l0UUsxQ0dZUGlIRjNoUVQtRG5nWUwzMEdSaGxBT1l1X3hWUEEwSW9TbXczUUxrckZsdU5QSVRNRWwzeTBXcmxzeUE5OXEyOU9rRzNj0gFmQVVfeXFMTkNnMFlBemkwOWVveVlyNGNRZzMxbjNsZWVmYTVtQmJ2T0pRQV9IZmxnYnREbG5UalFPQ3ZCZl93Z2VDcUZlTkVBeWExUi00dHAtbVBPMENZZVRTX0V2SlZNbTduTGhB?oc=5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECB “中 대유럽 수출 급증, 美 관세 인상 탓 아냐” - 글로벌이코노믹</t>
+          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나 - 마켓인</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ECB “中 대유럽 수출 급증, 美 관세 인상 탓 아냐”&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나&amp;nbsp;&amp;nbsp;마켓인</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:06:29 GMT</t>
+          <t>Thu, 19 Feb 2026 08:42:51 GMT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOWTNPNDJkX01GTmk3THFRYTlBNlFNcDZteDVZWU1XbUhsblZKVEt5R2VBNS1JY05Yek9pekpNZ3FxVURyUmptQ1ljN3VxRVUxcUFqcmJWbjh6aUZKc0dsdUZpeVc3RlQzX1RDWHRablBXSlpCSVppc3pJQnc4V3QwdEFOQjBtZkgy?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1YT1J0QlFtUUt0T0dRSkZxSU5lUEJuSkFjYTZzVjhHbG5ibkRCN2poSUFuYWhMd3pKSnlKNUNYc2NXTkZfanpJbXBFSGpEZGw2Y3pfc2ExenBhZTFVUlBITlY0cmZMWHZIYUVUSUFGQUlodUE?oc=5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -698,22 +698,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>美, LS일렉·효성重 변압기에 또 관세 - sedaily.com</t>
+          <t>ECB “中 대유럽 수출 급증, 美 관세 인상 탓 아냐” - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>美, LS일렉·효성重 변압기에 또 관세&amp;nbsp;&amp;nbsp;sedaily.com</t>
+          <t>ECB “中 대유럽 수출 급증, 美 관세 인상 탓 아냐”&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 08:53:49 GMT</t>
+          <t>Thu, 19 Feb 2026 00:06:29 GMT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUkFVX3lxTFBUU3JmS2NoR01UcWt1c05faXRzMzZ1Z0FKblZycU5WQU9uWFFpWGhpRjNHWHVXdUx4TUlZU2c0bC1PZTdGWHJlUXVsaVVlbzRMaXc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOWTNPNDJkX01GTmk3THFRYTlBNlFNcDZteDVZWU1XbUhsblZKVEt5R2VBNS1JY05Yek9pekpNZ3FxVURyUmptQ1ljN3VxRVUxcUFqcmJWbjh6aUZKc0dsdUZpeVc3RlQzX1RDWHRablBXSlpCSVppc3pJQnc4V3QwdEFOQjBtZkgy?oc=5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -735,22 +735,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라” - KBS 뉴스</t>
+          <t>美, LS일렉·효성重 변압기에 또 관세 - sedaily.com</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라”&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
+          <t>美, LS일렉·효성重 변압기에 또 관세&amp;nbsp;&amp;nbsp;sedaily.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:48:00 GMT</t>
+          <t>Thu, 19 Feb 2026 08:53:49 GMT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BZnZoemIxS182MmhUR3ZXVlpOczhPUVB6aG9Tbm1QdDhQSkhaYVdBWkJ0Rk0tSy1RLVR0bGZnU0JfTzhvNEZyVTBkOGh5cUVNN2NTb25tWlJobVE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUkFVX3lxTFBUU3JmS2NoR01UcWt1c05faXRzMzZ1Z0FKblZycU5WQU9uWFFpWGhpRjNHWHVXdUx4TUlZU2c0bC1PZTdGWHJlUXVsaVVlbzRMaXc?oc=5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -772,22 +772,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>경남, 美 관세 부담에도 승용차 수출 반등 - 스트레이트뉴스</t>
+          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야” - 경기일보</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>경남, 美 관세 부담에도 승용차 수출 반등&amp;nbsp;&amp;nbsp;스트레이트뉴스</t>
+          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야”&amp;nbsp;&amp;nbsp;경기일보장동혁 "이재명 대통령 SNS 답하느라 과로...관세 문제는?"&amp;nbsp;&amp;nbsp;YTN장동혁 "李대통령 SNS에 부동산 말고 관세도 담겨야"&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 13:58:31 GMT</t>
+          <t>Thu, 19 Feb 2026 00:50:00 GMT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTFB0WW9XTG1zUktGSlNJUHZkdTAyTW9mUHRQZjRHcWN4VndKSmllX2Jqb3hJSnZHaDFaTm9wWXVha24xTzdsZlBHWU5NSllQVGdRWHJHMUZxdlZxaGUtcTFkc3RPbkFndHpibHJlV1hXemJMWU3SAXdBVV95cUxPYy1fYlN1ZXhCV1JnUUdtMGNRYmNHVnZfMU5wRDVxTGhyX3l3TDJwSzBNZHMwS1dmazZORjhVQ0phcHIzV0xGY0NtTXlnZ0hFYXpjcUhpVTRJclVxbW4zcGpMR3pzeVo0ODRQTjJ0YXFrQVk5X0tQRQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1VS0tkUzFsOHNvZkJ2SU5yeWxWMTNFMHhzY25IWE9oYjRaN2FuS1BOVlVLTUpQcl84LWlnQXZ4M2h3UlJDTEtoNUtZVzBObGJUdnVIbERPMmdKRVE?oc=5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -809,22 +809,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대 - v.daum.net</t>
+          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라” - KBS 뉴스</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라”&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 19:18:00 GMT</t>
+          <t>Thu, 19 Feb 2026 02:48:00 GMT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9XR2ZaaWlzVVp6OTRaT0dfd1VqQk9tR3FDTHB2cHBpd0pLQzljQ2N5bEU1Ynh5SDlvdGcwUVZOaWo2NWdUQkNmZ3l1cUZIM0E?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BZnZoemIxS182MmhUR3ZXVlpOczhPUVB6aG9Tbm1QdDhQSkhaYVdBWkJ0Rk0tSy1RLVR0bGZnU0JfTzhvNEZyVTBkOGh5cUVNN2NTb25tWlJobVE?oc=5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -846,22 +846,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[단독]美, 25% 관세 예고 前 ‘LNG터미널’ 투자 요구 - 동아일보</t>
+          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대 - v.daum.net</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[단독]美, 25% 관세 예고 前 ‘LNG터미널’ 투자 요구&amp;nbsp;&amp;nbsp;동아일보</t>
+          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 19:30:00 GMT</t>
+          <t>Thu, 19 Feb 2026 19:18:00 GMT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMid0FVX3lxTE5Wd0xEbXZsWTV0TldfS2Y3Mm5yV055TXNTc05COWthVjhOR1l0UUsxQ0dZUGlIRjNoUVQtRG5nWUwzMEdSaGxBT1l1X3hWUEEwSW9TbXczUUxrckZsdU5QSVRNRWwzeTBXcmxzeUE5OXEyOU9rRzNj0gFmQVVfeXFMTkNnMFlBemkwOWVveVlyNGNRZzMxbjNsZWVmYTVtQmJ2T0pRQV9IZmxnYnREbG5UalFPQ3ZCZl93Z2VDcUZlTkVBeWExUi00dHAtbVBPMENZZVRTX0V2SlZNbTduTGhB?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9XR2ZaaWlzVVp6OTRaT0dfd1VqQk9tR3FDTHB2cHBpd0pLQzljQ2N5bEU1Ynh5SDlvdGcwUVZOaWo2NWdUQkNmZ3l1cUZIM0E?oc=5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문 - 글로벌이코노믹</t>
+          <t>미 대법원, 트럼프 관세 판결 임박...시장 반응에 '촉각' - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>미 대법원, 트럼프 관세 판결 임박...시장 반응에 '촉각'&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 18:55:00 GMT</t>
+          <t>Thu, 19 Feb 2026 21:12:59 GMT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNXy0tSUI2QndzSVZSTDhObnVWT3hPVTBVQVRjeU1CdFB6bkdRLUdaa0ZOaEhvd1NTcWhKTlk1dkxIS1JLY012aTVHU3RlQkxkaGNwckxYQ0JtMEtGODNQZGlLV2xiWFZMQXB5UGY0VU1FYWhtZDI5emF4bHBUQnJDUmE0S2M4U1RP?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNdHl2d293MTRwaFB3bTM4OVhWWDBIM0ZndGVMRDlwT0ZaY2NNNWxXdFdXblJHNFBWMzRWWTZGeEsxclQwZ3FWSnJVNU42eTV6am82ZGZMd3B4d0JNd29WSjl0OXhFRGVwQUpZRVdDSHpOczZacVdJUEQ3VnVQeUxNRk80aURITVdf?oc=5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[세종로의 아침] 트럼프 관세 전쟁의 진짜 피해자 - 서울신문</t>
+          <t>마일스톤 관세사무소, 유튜브 채널로 “디지털 소통 강화” - 물류신문</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[세종로의 아침] 트럼프 관세 전쟁의 진짜 피해자&amp;nbsp;&amp;nbsp;서울신문</t>
+          <t>마일스톤 관세사무소, 유튜브 채널로 “디지털 소통 강화”&amp;nbsp;&amp;nbsp;물류신문</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 15:28:12 GMT</t>
+          <t>Thu, 19 Feb 2026 07:09:14 GMT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxPeGNjRjFILVhYWS1sM3IxWVB5S3ZUZWRsWFFyOHZsREV5UjIzQk15NGViMWNkWmctU2xWUm8yaDRJRFZVSFd1el9GMGZidl9MYzVhOUZONEZPNUxsaFZOdUhBSmc1NWs1QTFQNkhFaUYtNUhHUVh6OEljVC1TV0FheVFZUHFaTWZpYmQ0RE5jcDdfdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1Obm5VUk5BVnkwR3lPbUNKanFTbGpjdTNDMkMzYXBkTG9mNTN0WDJ3NnI3TFVldTB6M0wtTVFrS2RrTmpYb3E1dE5sNnl4OTBPSDA3Y1pfa0lkaXBuNmRTdW1IQU9QRlFSczVB?oc=5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -957,22 +957,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>마일스톤 관세사무소, 유튜브 채널로 “디지털 소통 강화” - 물류신문</t>
+          <t>트럼프 관세에도 미국 지난해 수입 5%↑…무역적자 0.2%↓ - KBS 뉴스</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>마일스톤 관세사무소, 유튜브 채널로 “디지털 소통 강화”&amp;nbsp;&amp;nbsp;물류신문</t>
+          <t>트럼프 관세에도 미국 지난해 수입 5%↑…무역적자 0.2%↓&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:09:14 GMT</t>
+          <t>Thu, 19 Feb 2026 16:22:00 GMT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1Obm5VUk5BVnkwR3lPbUNKanFTbGpjdTNDMkMzYXBkTG9mNTN0WDJ3NnI3TFVldTB6M0wtTVFrS2RrTmpYb3E1dE5sNnl4OTBPSDA3Y1pfa0lkaXBuNmRTdW1IQU9QRlFSczVB?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BS09IRzUzc3A1MElJWldVbkFFbVVnVk9fVThvc1JSVmF3QWg3TVV0WDFTQWdXc0c5XzFtNy1FQWFudTE3SzJEWmhfQTZwTFgzWXpNNm9YWExNTGs?oc=5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 미국 지난해 수입 5%↑…무역적자 0.2%↓ - KBS 뉴스</t>
+          <t>美, 철강·알루미늄 고율 관세 조정 가능성 시사 - 페로타임즈</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 미국 지난해 수입 5%↑…무역적자 0.2%↓&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
+          <t>美, 철강·알루미늄 고율 관세 조정 가능성 시사&amp;nbsp;&amp;nbsp;페로타임즈</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 16:22:00 GMT</t>
+          <t>Thu, 19 Feb 2026 20:31:44 GMT</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BS09IRzUzc3A1MElJWldVbkFFbVVnVk9fVThvc1JSVmF3QWg3TVV0WDFTQWdXc0c5XzFtNy1FQWFudTE3SzJEWmhfQTZwTFgzWXpNNm9YWExNTGs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE9rcU5zN3o0dGVyZTBiTWlRd1JVelU2aW81UXVyTGVGUmNRUTJoQ2NUV21SbFV3MGpzWTBpMmVlRURvMGRuLXdsempDb0oyOTlmaktWRFBuZkZ1MHQ1VVpkVjhvWDZ0cllPWDcyOA?oc=5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1031,22 +1031,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>장동혁 "이 대통령 SNS에 온통 부동산뿐…관세 해결부터" - 뉴스토마토</t>
+          <t>'트럼프 관세'에도 美 수입 사상 최대…무역적자 소폭 축소 - 블로터</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>장동혁 "이 대통령 SNS에 온통 부동산뿐…관세 해결부터"&amp;nbsp;&amp;nbsp;뉴스토마토</t>
+          <t>'트럼프 관세'에도 美 수입 사상 최대…무역적자 소폭 축소&amp;nbsp;&amp;nbsp;블로터</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:17:24 GMT</t>
+          <t>Thu, 19 Feb 2026 19:55:42 GMT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9RRXEyMUZZbEtnSUFqdzJrT2drQXhKRWtlczA3ejRnWXM3Uy1nT3I1VTRPMWJCdG9rektZZ2VnM1JNNWFSc0tEbDhWNFlreHRXWTFiNUZabFRKRXNzNGxLeg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE5HMU42RVlBb201WTFMQjBhYkswSU5zTzZVcFN1TTk1amdZVDZYMzh0aFZpSVBLaHRDdTJMRnY3VTZPUFZqTDluNDQ0OFZpWk1vUXhpNXUwVXJHRllIYUU4TUtjZUUyTlFV0gFsQVVfeXFMTzlJUy1IX2pFejVSeFpkb3JMWmJVeV9yTFdpMlRMVG44RWc4ZmJKeERVZVlLWjk0NElGNzNlbFpKdVU0OFNBQjhUMXp6UzRzeDNQbDN1cUhJeUtEaXYxOW5RZ25YNG52WWR6QXhf?oc=5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>K-철강, 관세에 숨통 트이나···트럼프표 '관세 정책'에 변화 조짐 - 서울파이낸스</t>
+          <t>'트럼프 관세'에도 美작년 무역적자 9015억달러…1960년 이후 최대 수준 - edaily.co.kr</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>K-철강, 관세에 숨통 트이나···트럼프표 '관세 정책'에 변화 조짐&amp;nbsp;&amp;nbsp;서울파이낸스</t>
+          <t>'트럼프 관세'에도 美작년 무역적자 9015억달러…1960년 이후 최대 수준&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 06:17:52 GMT</t>
+          <t>Thu, 19 Feb 2026 17:52:38 GMT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiakFVX3lxTE1JdWxiNGJmZzE2Y0Nzc1k0anpjTjBZUmo4WmhuZ0xGSXFULW5VSmVGdXJwYl81WUxEZTc1eWpqOElaTVNWUElKazlxRDBUd21keE1LdTZEMkZPLS1mMlRkYW1FM0RQeUxsUVE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxPTl9OcG5GY3F2NjIxLXp1NVNPWERDTl84cEtESG1nNWlGWWhydUlYZ29HaTcyU1pBLUwxWFJQbEJFdmtPVUhJdERuWkFSS0pWTEU3aVdmX3VCSHR2QUt3MHZ0NG9DZkQ2b2FQRWhyZG1mVzUwMnV4amlYdjZqcFBhWQ?oc=5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>트럼프 "관세 덕분에 美무역적자 78% 감소…올해 흑자 전환" - 뉴스1</t>
+          <t>트럼프 관세 '무색'…美 작년 무역적자 사상 최고 - v.daum.net</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>트럼프 "관세 덕분에 美무역적자 78% 감소…올해 흑자 전환"&amp;nbsp;&amp;nbsp;뉴스1</t>
+          <t>트럼프 관세 '무색'…美 작년 무역적자 사상 최고&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 06:14:10 GMT</t>
+          <t>Thu, 19 Feb 2026 21:24:19 GMT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTE9YUTRaUldzQTBVVHN5ZTlGMk1fUnN0US1nNmxabHJrRFBWTDQ4cGtkdWl0TnZZbjRIYlZoRlhGcERRcW1meUJuX2VnSFpsWlhkbFdmSGNDalU?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE5iU3FsQ2ZXckRZcHhvTjFuZy1NTG5LcHh2LWtrc2FnLXhwUTRGYXA3bTJVemVWOGx5aWhuZU95T2U0ZjJDNThkcFhOb0VPMjQ?oc=5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>관세가 ‘세계 공용어’가 된 시대에 기업은 어떻게 대응해야 할까요? - 플래텀(Platum)</t>
+          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어 - 연합뉴스</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>관세가 ‘세계 공용어’가 된 시대에 기업은 어떻게 대응해야 할까요?&amp;nbsp;&amp;nbsp;플래텀(Platum)</t>
+          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wed, 18 Feb 2026 23:01:00 GMT</t>
+          <t>Thu, 19 Feb 2026 15:14:21 GMT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiSEFVX3lxTE50U3JSWG0yMEs1MEFyVlViZzBPcnNrNVhYVWZPLVZaZ255NzEzYkU5OWNSa3k0cHNuRFlZREdTX3J6aDAxcUIzOA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBNTGNCUUxaUk5QM09TQ0hXZ05TdDdSbXQwY3I4Z3JNS0dPWjBMcm9Na1FCXzdpbGc1WFNHanFNMDBxMlA4YWNvN2ZLWEI4OFZYOEdtMWo5Ry0xUTTSAWBBVV95cUxOS1ItbGNPczNsSjlZZVBFY0RxLVlTcFRncXIwSUpyWVp0blRLNWtETWQ5ZWZjYkFwdXBSa2FFaVREYzY1M0xaekpNcktmN1gtcGUyTmNHc1BCRm5iYnJIZno?oc=5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1179,22 +1179,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어 - 연합뉴스</t>
+          <t>'트럼프 관세'가 쏘아 올린 인도의 역습... EU와 '20억 명' 무관세 동맹 타결 - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어&amp;nbsp;&amp;nbsp;연합뉴스</t>
+          <t>'트럼프 관세'가 쏘아 올린 인도의 역습... EU와 '20억 명' 무관세 동맹 타결&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 15:14:21 GMT</t>
+          <t>Thu, 19 Feb 2026 20:48:56 GMT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBNTGNCUUxaUk5QM09TQ0hXZ05TdDdSbXQwY3I4Z3JNS0dPWjBMcm9Na1FCXzdpbGc1WFNHanFNMDBxMlA4YWNvN2ZLWEI4OFZYOEdtMWo5Ry0xUTTSAWBBVV95cUxOS1ItbGNPczNsSjlZZVBFY0RxLVlTcFRncXIwSUpyWVp0blRLNWtETWQ5ZWZjYkFwdXBSa2FFaVREYzY1M0xaekpNcktmN1gtcGUyTmNHc1BCRm5iYnJIZno?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxON3hhVnRzbUhaVDFEdkRpd1dTd0dOYXZwWEVaYWVfdkJ1cjZiMXNBcy1aM0RlLXFZcDU4OGVxX3o3QndMMGpZNWZDcE9lTGZ1VTJvdTF5TXp2VlJmMVB5ZjVWNU9HWFNVdlpGdko1dG9JSHJNeDdZZ0NXRWFrYUZIcS0zcmZldXFu?oc=5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1290,22 +1290,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>“관세 인상 부담 美 소비자가 진다고? 징계받을 연구”…연준 또 공격한 백악관 - 조선일보</t>
+          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문 - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>“관세 인상 부담 美 소비자가 진다고? 징계받을 연구”…연준 또 공격한 백악관&amp;nbsp;&amp;nbsp;조선일보</t>
+          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:23:00 GMT</t>
+          <t>Thu, 19 Feb 2026 18:55:00 GMT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijgFBVV95cUxNUDhmemxjRk9iWDVKWHZvYUpXZklRZkxGUHhpZmxUS3BvSXpoOEFaeFJlM2FmN2gyM1U5Y3dVYWFidk1HZEhTbTN3Q1dRSW1YYlVxdDQtVjNTbGJHZS00UklMNHlHdzk3bXgwQTlGS2YyZTlLNU1FTFFZcHhFMUtYQWV3aHdsUW1HSW1kX1pn0gGiAUFVX3lxTFA1U2JLeUpOUi1zSlphRldQc3lMQkpvanVMOXhCTnRIdmZCc25oMGZWWVJRYUpYM0N6a055dk5acXNwb0FhVGMwUGdEWGlSblViandMbGViSVhCVzd4cHQzVTFJdkU0MmVYS19PWW84c1Zsd21hSl93bmtzVGphcXAwOTcxQndTQm82dWNYWHYyQlcwTDEzQU9RU2lmRVoxUVBtdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNXy0tSUI2QndzSVZSTDhObnVWT3hPVTBVQVRjeU1CdFB6bkdRLUdaa0ZOaEhvd1NTcWhKTlk1dkxIS1JLY012aTVHU3RlQkxkaGNwckxYQ0JtMEtGODNQZGlLV2xiWFZMQXB5UGY0VU1FYWhtZDI5emF4bHBUQnJDUmE0S2M4U1RP?oc=5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1322,27 +1322,27 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고 - 스트레이트뉴스</t>
+          <t>브라질, 中 철강에 톤당 최대 670달러 반덤핑 관세...5년 적용 - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;스트레이트뉴스</t>
+          <t>브라질, 中 철강에 톤당 최대 670달러 반덤핑 관세...5년 적용&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:51:41 GMT</t>
+          <t>Thu, 19 Feb 2026 20:45:00 GMT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1rcHNOTEZNQktlMHR0NjNNb3p6NFRKY3lWX01vWHJJTmFmZ3JiZEh4bWdScFVTU0NYY2lSY0VpNXBHclpoRl9OdmZ0b3ZLNDVLX0M0MVpYR3Y0cjdJYXEyZ1VxV2Z4UXZuaXR1OHJDNC1mMm_SAXdBVV95cUxQQVlIZEFoRTVoZ3BmUHJCQUdENEJTbDBmYUFMWUFlVU55ZEJXNmRnWV80dmVXRl8taDRRUWZMWXBDbXctdFVoazVyVGk3QVNOSmx4UXp5T1ZqNUtzUGJzVlhmTE51ZXlUUGJjdFdpeW41UzBwV0tmdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxONkdCUkJja3ZHWUdjelVRUEsyU0NNSVloMFc1ZFlYUXBHeTM3LW1ZQTl4Tnk3Nkl4RVduUzNLcHVRRjNsNzFMZWtsTy1hbmJYVXVCbGRIOXZ3Z2hRZWtqZUVYZWFPQkU2X3BmQ3psWF9mbjMzeDBNd1lRZk9XTXRsWmt3NWRzRUVN?oc=5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1352,34 +1352,34 @@
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고 - gukjenews.com</t>
+          <t>장동혁 "이 대통령 SNS에 온통 부동산뿐…관세 해결부터" - 뉴스토마토</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;gukjenews.com</t>
+          <t>장동혁 "이 대통령 SNS에 온통 부동산뿐…관세 해결부터"&amp;nbsp;&amp;nbsp;뉴스토마토</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:00:35 GMT</t>
+          <t>Thu, 19 Feb 2026 02:17:24 GMT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFBybUE4VlBWeFJYajJMUWoyc09yZUc4UlNrU280NVkzS3lBaXZuVFdZVl81WEtZdk9uSnRMeDhmd281VDVoelFfQmlVMGpEUlJTaHktV3ZNMkZTREFrVlhLUThXdnBZMDFxUWdRUWxR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9RRXEyMUZZbEtnSUFqdzJrT2drQXhKRWtlczA3ejRnWXM3Uy1nT3I1VTRPMWJCdG9rektZZ2VnM1JNNWFSc0tEbDhWNFlreHRXWTFiNUZabFRKRXNzNGxLeg?oc=5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1389,34 +1389,34 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집 - 프레시안</t>
+          <t>“관세 장벽 넘어라” 펜실베이니아부터 앨라배마까지… 미국 전역에 꽂히는 빅파마 깃발 - 금융경제플러스</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집&amp;nbsp;&amp;nbsp;프레시안</t>
+          <t>“관세 장벽 넘어라” 펜실베이니아부터 앨라배마까지… 미국 전역에 꽂히는 빅파마 깃발&amp;nbsp;&amp;nbsp;금융경제플러스</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 04:37:36 GMT</t>
+          <t>Thu, 19 Feb 2026 21:00:00 GMT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1zX0Vjd3VVSXJuZUpCUkdMTW5ZZHRXMlZFSmhOSWJoVUVpZXhVM1IwbzdMVVRFZ0dJNXBSZlIyMUk4S2NBQnk2THJ0TmtHbzY0a2dBRDBjMkpkNHQ4N2hyd09ZLWRNb3FQWTZN?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE5XcjgwcmFFRVhrbzBRMHhKZldOS2NnektOS1p3SXdFTkZ6MFcyTGNoc1dKdTh5YkVzRlpraHBBbWo3Rk5ubEUwcDkxWFJBVDRRUmNYLThzOW1NQkRfcTZ2R3JVS3lQX1cxdTduaQ?oc=5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1438,22 +1438,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화 - 경북신문</t>
+          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고 - 스트레이트뉴스</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화&amp;nbsp;&amp;nbsp;경북신문</t>
+          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;스트레이트뉴스</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 04:44:18 GMT</t>
+          <t>Thu, 19 Feb 2026 07:51:41 GMT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTE1YZ1REZWE1d0tEZXFnamtobi1WeGpQYjFtX0o5TVpjOVJWMEdJM0FQY0JoakpqOHNXQS1MZm4xeUNfVUhHa3N5Y0xQcUhYSFlTNlc2YVRGUkE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1rcHNOTEZNQktlMHR0NjNNb3p6NFRKY3lWX01vWHJJTmFmZ3JiZEh4bWdScFVTU0NYY2lSY0VpNXBHclpoRl9OdmZ0b3ZLNDVLX0M0MVpYR3Y0cjdJYXEyZ1VxV2Z4UXZuaXR1OHJDNC1mMm_SAXdBVV95cUxQQVlIZEFoRTVoZ3BmUHJCQUdENEJTbDBmYUFMWUFlVU55ZEJXNmRnWV80dmVXRl8taDRRUWZMWXBDbXctdFVoazVyVGk3QVNOSmx4UXp5T1ZqNUtzUGJzVlhmTE51ZXlUUGJjdFdpeW41UzBwV0tmdw?oc=5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1475,22 +1475,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집 - 이뉴스투데이</t>
+          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고 - gukjenews.com</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집&amp;nbsp;&amp;nbsp;이뉴스투데이</t>
+          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;gukjenews.com</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:29:36 GMT</t>
+          <t>Thu, 19 Feb 2026 07:00:35 GMT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9NTDdBMDZ5Sml4VFlFN2M2Q3JmTzZxOWlDdXNOX2wzVTdrRWlBYkNEOFNKWWhfLWZ6NzJ4U0lJeHc2aEhSYUczU1BRU29rNGNkU04yVE5GZGxGbjdtSFh1dnQ5cU1JMEhzYW5BS2l1bzjSAXRBVV95cUxOSEc5cnFac3d2VFZ1dWUzaGNJRGNtS2V1NHF6dkFUTGpSeThVQjVnbmVrTFNtUkRsRVp5WWFqS1JiSGgzd1Q2ZUttQUlKbzVZOS1wVDNkLWh1UU5JTmRRU0xpLXBpRGxnOThEeHphaTNmVDhaSg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFBybUE4VlBWeFJYajJMUWoyc09yZUc4UlNrU280NVkzS3lBaXZuVFdZVl81WEtZdk9uSnRMeDhmd281VDVoelFfQmlVMGpEUlJTaHktV3ZNMkZTREFrVlhLUThXdnBZMDFxUWdRUWxR?oc=5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1512,22 +1512,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모 - 위키트리</t>
+          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집 - 프레시안</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모&amp;nbsp;&amp;nbsp;위키트리</t>
+          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집&amp;nbsp;&amp;nbsp;프레시안</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 05:01:00 GMT</t>
+          <t>Thu, 19 Feb 2026 04:37:36 GMT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTFBtVE1UY0dLaTVlRUMwd1EzTm9zdk1ZQm1DeXNDUUhPREZwOU5jR1ppNDBXSTRIN1FwdURGRGpFQmFMRzJ2TUtMUC1fb0RLZjhkZ0lXdldR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1zX0Vjd3VVSXJuZUpCUkdMTW5ZZHRXMlZFSmhOSWJoVUVpZXhVM1IwbzdMVVRFZ0dJNXBSZlIyMUk4S2NBQnk2THJ0TmtHbzY0a2dBRDBjMkpkNHQ4N2hyd09ZLWRNb3FQWTZN?oc=5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1549,22 +1549,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집 - 경북일보</t>
+          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화 - 경북신문</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집&amp;nbsp;&amp;nbsp;경북일보</t>
+          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화&amp;nbsp;&amp;nbsp;경북신문</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:10:58 GMT</t>
+          <t>Thu, 19 Feb 2026 04:44:18 GMT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wTU1hcmgwQW9VVnRFQlR0azlDZTFVejc4QmRnZ0tMM2Y0bVhLT2VWWVB1dVJldk5PSzhDeHhLQ0JMcDlraVlHcnptb3VPelFJTnBreHR1ZHRaODdRQnFKb2FPcGYxSWIwV2pGMGM1MA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTE1YZ1REZWE1d0tEZXFnamtobi1WeGpQYjFtX0o5TVpjOVJWMEdJM0FQY0JoakpqOHNXQS1MZm4xeUNfVUhHa3N5Y0xQcUhYSFlTNlc2YVRGUkE?oc=5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>일괄약가인하 둘러싼 공정성 논란...FTA 법리 오용 우려 - 팜뉴스</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집 - 이뉴스투데이</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>일괄약가인하 둘러싼 공정성 논란...FTA 법리 오용 우려&amp;nbsp;&amp;nbsp;팜뉴스</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집&amp;nbsp;&amp;nbsp;이뉴스투데이</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wed, 18 Feb 2026 21:00:00 GMT</t>
+          <t>Thu, 19 Feb 2026 09:29:36 GMT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE96aXU3azNFQUJxdjA5bnBxaWFfU3lqY1UxV1lQSVltVExORmNVUmpaZ1d2VnhpNHZMcDZlUTFaTm9Gc1VOQ3FyNGIxREFmOE12YUtZWm5PemFwa2lGdXJBX3l3Yk5xMmpVZzFqbQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9NTDdBMDZ5Sml4VFlFN2M2Q3JmTzZxOWlDdXNOX2wzVTdrRWlBYkNEOFNKWWhfLWZ6NzJ4U0lJeHc2aEhSYUczU1BRU29rNGNkU04yVE5GZGxGbjdtSFh1dnQ5cU1JMEhzYW5BS2l1bzjSAXRBVV95cUxOSEc5cnFac3d2VFZ1dWUzaGNJRGNtS2V1NHF6dkFUTGpSeThVQjVnbmVrTFNtUkRsRVp5WWFqS1JiSGgzd1Q2ZUttQUlKbzVZOS1wVDNkLWh1UU5JTmRRU0xpLXBpRGxnOThEeHphaTNmVDhaSg?oc=5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시 - 산업종합저널</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모 - 위키트리</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시&amp;nbsp;&amp;nbsp;산업종합저널</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모&amp;nbsp;&amp;nbsp;위키트리</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:48:40 GMT</t>
+          <t>Thu, 19 Feb 2026 05:01:00 GMT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1vcUd1RTFmY0wteFRoUmdEMTA4WWlYZXdrMTh6Q3QzaDZnYS1jWVdZLW1LMmNZbDV1alFYOG54V1FGNlRMc3BIclZhekxxVTNoWElJ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTFBtVE1UY0dLaTVlRUMwd1EzTm9zdk1ZQm1DeXNDUUhPREZwOU5jR1ppNDBXSTRIN1FwdURGRGpFQmFMRzJ2TUtMUC1fb0RLZjhkZ0lXdldR?oc=5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1660,22 +1660,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집 - 열린뉴스통신</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집 - 경북일보</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집&amp;nbsp;&amp;nbsp;열린뉴스통신</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집&amp;nbsp;&amp;nbsp;경북일보</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 06:41:12 GMT</t>
+          <t>Thu, 19 Feb 2026 09:10:58 GMT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1sSGZicC1YcmlBZVE2d0NZaVBLdHpNQWYyckh2RGJrUlNfUHc1ZG5VcEhGMFZyNEtjVnVyMUxCa05rOGU0YkloVDhROFVIYXNXYVdWQWZwNkxXNmROSDRvRGNINUNkQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wTU1hcmgwQW9VVnRFQlR0azlDZTFVejc4QmRnZ0tMM2Y0bVhLT2VWWVB1dVJldk5PSzhDeHhLQ0JMcDlraVlHcnptb3VPelFJTnBreHR1ZHRaODdRQnFKb2FPcGYxSWIwV2pGMGM1MA?oc=5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1692,27 +1692,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발 - v.daum.net</t>
+          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시 - 산업종합저널</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시&amp;nbsp;&amp;nbsp;산업종합저널</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:20:38 GMT</t>
+          <t>Thu, 19 Feb 2026 00:48:40 GMT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBkX0d2MXlLbHRlMGhPQmVOczFKOE9iR3BJS0FubG5NUmVPaDBXWnB1WXk4aVFMV1JGUTBXY05SR1dwRXoyYmxwX0V5WFg0dnc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1vcUd1RTFmY0wteFRoUmdEMTA4WWlYZXdrMTh6Q3QzaDZnYS1jWVdZLW1LMmNZbDV1alFYOG54V1FGNlRMc3BIclZhekxxVTNoWElJ?oc=5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1729,37 +1729,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설 - 서울신문</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집 - 열린뉴스통신</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설&amp;nbsp;&amp;nbsp;서울신문</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집&amp;nbsp;&amp;nbsp;열린뉴스통신</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:05:59 GMT</t>
+          <t>Thu, 19 Feb 2026 06:41:12 GMT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1RNnhqdllqNC1uZlQ2QkoyMVBObnRiNEVqN2tpOGR2eDktUWwxZjlyU2Rxc1dfSWJOVnowSk5QRlBhUzRLajI4aUs0WUNfQTllWTJkd0hsMzZxdEN6TWlnTzEzTkJ5NjBZeW1fSWZDQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1sSGZicC1YcmlBZVE2d0NZaVBLdHpNQWYyckh2RGJrUlNfUHc1ZG5VcEhGMFZyNEtjVnVyMUxCa05rOGU0YkloVDhROFVIYXNXYVdWQWZwNkxXNmROSDRvRGNINUNkQQ?oc=5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1771,32 +1771,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설 - 쿠키뉴스</t>
+          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발 - v.daum.net</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설&amp;nbsp;&amp;nbsp;쿠키뉴스</t>
+          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 08:52:12 GMT</t>
+          <t>Thu, 19 Feb 2026 09:20:38 GMT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiY0FVX3lxTE5IV2tkX3FQZmx3ZzNvTFRDLS1wWUIwUGNnekVVczVQLW5TaVBIcVBZZ1FEbHZSeTBQclFxY3VKRHVTYmo1djRYZmI2Z1BEZGhUS0VLWTA4aUpmbW4zRFJQVXg0TQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBkX0d2MXlLbHRlMGhPQmVOczFKOE9iR3BJS0FubG5NUmVPaDBXWnB1WXk4aVFMV1JGUTBXY05SR1dwRXoyYmxwX0V5WFg0dnc?oc=5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1808,32 +1808,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발 - 경북일보</t>
+          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설 - 서울신문</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발&amp;nbsp;&amp;nbsp;경북일보</t>
+          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설&amp;nbsp;&amp;nbsp;서울신문</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:33:05 GMT</t>
+          <t>Thu, 19 Feb 2026 07:05:59 GMT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5mY0pVQUYwZmhsMEtvX3JSMGNzdEU2OWFEMFVwMkw5VzN2RHR1d0ZDZEhfMVlGMnR4R0FkdFZWVkZ2TzgzY0RjejNiUlNxUWRFa1o5R01fX0dhd21SN3BSUUZlSHlHYy15dFYtbEV2SQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1RNnhqdllqNC1uZlQ2QkoyMVBObnRiNEVqN2tpOGR2eDktUWwxZjlyU2Rxc1dfSWJOVnowSk5QRlBhUzRLajI4aUs0WUNfQTllWTJkd0hsMzZxdEN6TWlnTzEzTkJ5NjBZeW1fSWZDQQ?oc=5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1845,22 +1845,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시 - 신아일보</t>
+          <t>15도 안팎 큰 일교차…경상권 건조·강원산지 강풍 유의 [날씨 LIVE] - 이투데이</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;신아일보</t>
+          <t>15도 안팎 큰 일교차…경상권 건조·강원산지 강풍 유의 [날씨 LIVE]&amp;nbsp;&amp;nbsp;이투데이</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 03:06:32 GMT</t>
+          <t>Thu, 19 Feb 2026 20:05:00 GMT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wRGF1V0JpdUl3YnZqd0MzWjVOcjJuSG8zLS02d3FCdXV0N2I1azgxdlIyWnhTWWZsbDVtdE8xWUN2RHVNVVViamZ0NUJfaFllcFAtZXMybm9wcWw1ZU1oYXNESmpOU1hmWGFRanZ2Zw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE9adXdCTUEtanpLM2NQS1ItVW0xVURwUFYyamRldnQwM1JRZHBSTHVocVF2aWZicWZ3ckQzRUFBRzNEVk8yNUVXZEVMeEhaWFh3UHdHdQ?oc=5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1882,32 +1882,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발 - 한국식품의약신문</t>
+          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설 - 쿠키뉴스</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발&amp;nbsp;&amp;nbsp;한국식품의약신문</t>
+          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설&amp;nbsp;&amp;nbsp;쿠키뉴스</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:01:50 GMT</t>
+          <t>Thu, 19 Feb 2026 08:52:12 GMT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTFBaYU9fUC1TLTVrcVltcTk1ODJnTkJRQmJjTUhyX0l0Wm5lMjIxMG9BLUFtS1p3RHBtNVBNalhNZTIzaU5fN3o3aXVVdUVBOHRyaXdZQWllWEhLYjVZVW1rTUtnQThxV00?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiY0FVX3lxTE5IV2tkX3FQZmx3ZzNvTFRDLS1wWUIwUGNnekVVczVQLW5TaVBIcVBZZ1FEbHZSeTBQclFxY3VKRHVTYmo1djRYZmI2Z1BEZGhUS0VLWTA4aUpmbW4zRFJQVXg0TQ?oc=5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1919,22 +1919,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼 - 위클리오늘</t>
+          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발 - 경북일보</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼&amp;nbsp;&amp;nbsp;위클리오늘</t>
+          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발&amp;nbsp;&amp;nbsp;경북일보</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 01:37:00 GMT</t>
+          <t>Thu, 19 Feb 2026 09:33:05 GMT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE1zbThRQzVXbFI1T3ppSXl4Yi0wcHY4c2VPZS00TGxMUWZ0SjNxLTRxTExGWi1YbkpSUFl6YVRKMlpacklyTzZTYkZad2VLWGtoUTIyd1JudmtaTGh2WHRZZE4wOV90d2dwZXBlc1B3?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5mY0pVQUYwZmhsMEtvX3JSMGNzdEU2OWFEMFVwMkw5VzN2RHR1d0ZDZEhfMVlGMnR4R0FkdFZWVkZ2TzgzY0RjejNiUlNxUWRFa1o5R01fX0dhd21SN3BSUUZlSHlHYy15dFYtbEV2SQ?oc=5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1956,22 +1956,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시 - 웹이코노미</t>
+          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시 - 신아일보</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;웹이코노미</t>
+          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;신아일보</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:29:03 GMT</t>
+          <t>Thu, 19 Feb 2026 03:06:32 GMT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMickFVX3lxTE90OFRKOHNXRERlY3JQRXVYWXU2cmJuRU8zX1RWd3lhalJOTHI1WXVfZmNvRS1Sa0JWeVNHbWVLQkxBa0dQLS1qRmhVR1Jna2d5MGxJd3RyR3hCajVLa1N6MS03bFpwMWtBU0VlTVNrT0FwUQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wRGF1V0JpdUl3YnZqd0MzWjVOcjJuSG8zLS02d3FCdXV0N2I1azgxdlIyWnhTWWZsbDVtdE8xWUN2RHVNVVViamZ0NUJfaFllcFAtZXMybm9wcWw1ZU1oYXNESmpOU1hmWGFRanZ2Zw?oc=5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1993,22 +1993,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>정희용 의원, “캐나다산 삼겹살이 국산 둔갑, 국산 농축수산물이 피해 막아야” - everynews.co.kr</t>
+          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발 - 한국식품의약신문</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>정희용 의원, “캐나다산 삼겹살이 국산 둔갑, 국산 농축수산물이 피해 막아야”&amp;nbsp;&amp;nbsp;everynews.co.kr</t>
+          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발&amp;nbsp;&amp;nbsp;한국식품의약신문</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:06:00 GMT</t>
+          <t>Thu, 19 Feb 2026 02:01:50 GMT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE1UaTVRSU5tYlVNcXZjaGRpcXFFRTlsRGhnRS1VdWw3dHVyUlZNcW1adDVjTDJydHdLMGQ4VGp4SHZIMUJlNDN2NEdZR0JXbWJYMnoxZjU3OS1VcGRadDdXNDNrakU0YXRZMlFDbw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTFBaYU9fUC1TLTVrcVltcTk1ODJnTkJRQmJjTUhyX0l0Wm5lMjIxMG9BLUFtS1p3RHBtNVBNalhNZTIzaU5fN3o3aXVVdUVBOHRyaXdZQWllWEhLYjVZVW1rTUtnQThxV00?oc=5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2018,34 +2018,34 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>수출통제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈 - Chosunbiz</t>
+          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼 - 위클리오늘</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈&amp;nbsp;&amp;nbsp;Chosunbiz</t>
+          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼&amp;nbsp;&amp;nbsp;위클리오늘</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 03:17:08 GMT</t>
+          <t>Thu, 19 Feb 2026 01:37:00 GMT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxNWDdoTGg4NjIxQk5pbmptb0NuM2RXeW9XTklBTzdqMGlDWWJaQlVwdjJUejY5NnJmd0RMeWprYVZYSDZldEROemNzUTRfakpKcVFfeG5tWTRmWVdUWERXXy0yRTJGSmlLbW5oTm9lWHlnNEg1YmlIVERvdDR5dVBObzRra9IBlwFBVV95cUxONjZzbHNjYU1WT2pxZ3FtVFkzUWpUQU9ZRVk3QlR3ejNQT3g4cG1pOHVaSHo1N0ZFOXROTVRFWkFPcy0zSjBZOElUUU1sM2dWaUpTOUxma2xxTXpTNFJGb0Q5bVg5Y19LQVNUQ0tSSW9PZWVzUzNpNjB2S1Y0TExqVVFBSlNFNERaV1RuRkprM0xQM2tzNDNn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE1zbThRQzVXbFI1T3ppSXl4Yi0wcHY4c2VPZS00TGxMUWZ0SjNxLTRxTExGWi1YbkpSUFl6YVRKMlpacklyTzZTYkZad2VLWGtoUTIyd1JudmtaTGh2WHRZZE4wOV90d2dwZXBlc1B3?oc=5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2055,34 +2055,34 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’ - 전기신문</t>
+          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시 - 웹이코노미</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’&amp;nbsp;&amp;nbsp;전기신문</t>
+          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;웹이코노미</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 01:26:07 GMT</t>
+          <t>Thu, 19 Feb 2026 02:29:03 GMT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9nQTlYTE1vb1RlanVBS1VLa3pFVXJVY3NOTGIxb1hCWFE4QzY3VDVxa2VDcDhzcGxjMVI1aU11Y2pOWFpzazhRTGJCUnNseUl6dWo1Qjh0eTRXQ2hUUGN0Z182eEZ3aHRFMVlFdHItcXnSAXBBVV95cUxPZ0E5WExNb29UZWp1QUtVS2t6RVVyVWNzTkxiMW9YQlhROEM2N1Q1cWtlQ3A4c3BsYzFSNWlNdWNqTlhac2s4UUxiQlJzbHlJenVqNUI4dHk0V0NoVFBjdGdfNnhGd2h0RTFZRXRyLXF5?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMickFVX3lxTE90OFRKOHNXRERlY3JQRXVYWXU2cmJuRU8zX1RWd3lhalJOTHI1WXVfZmNvRS1Sa0JWeVNHbWVLQkxBa0dQLS1qRmhVR1Jna2d5MGxJd3RyR3hCajVLa1N6MS03bFpwMWtBU0VlTVNrT0FwUQ?oc=5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2092,9 +2092,120 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
+        <v>4</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[단독] 희토류 中 의존도 낮춘다…靑 현대차 등 기업과 비공개 회동 - 네이트</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[단독] 희토류 中 의존도 낮춘다…靑 현대차 등 기업과 비공개 회동&amp;nbsp;&amp;nbsp;네이트</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Thu, 19 Feb 2026 21:05:00 GMT</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1ETTg2R3BOS2ZmWnFIbWlOT2NKYWZEM3hteUxTMXdpVS1IdF9WUm9PbWxZVE0zSU1TLWxNNnJHdUptaWdleHA4OXNSV0dDOTI0b0RZ?oc=5</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈 - Chosunbiz</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈&amp;nbsp;&amp;nbsp;Chosunbiz</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Thu, 19 Feb 2026 03:17:08 GMT</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxNWDdoTGg4NjIxQk5pbmptb0NuM2RXeW9XTklBTzdqMGlDWWJaQlVwdjJUejY5NnJmd0RMeWprYVZYSDZldEROemNzUTRfakpKcVFfeG5tWTRmWVdUWERXXy0yRTJGSmlLbW5oTm9lWHlnNEg1YmlIVERvdDR5dVBObzRra9IBlwFBVV95cUxONjZzbHNjYU1WT2pxZ3FtVFkzUWpUQU9ZRVk3QlR3ejNQT3g4cG1pOHVaSHo1N0ZFOXROTVRFWkFPcy0zSjBZOElUUU1sM2dWaUpTOUxma2xxTXpTNFJGb0Q5bVg5Y19LQVNUQ0tSSW9PZWVzUzNpNjB2S1Y0TExqVVFBSlNFNERaV1RuRkprM0xQM2tzNDNn?oc=5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’ - 전기신문</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’&amp;nbsp;&amp;nbsp;전기신문</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Thu, 19 Feb 2026 01:26:07 GMT</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9nQTlYTE1vb1RlanVBS1VLa3pFVXJVY3NOTGIxb1hCWFE4QzY3VDVxa2VDcDhzcGxjMVI1aU11Y2pOWFpzazhRTGJCUnNseUl6dWo1Qjh0eTRXQ2hUUGN0Z182eEZ3aHRFMVlFdHItcXnSAXBBVV95cUxPZ0E5WExNb29UZWp1QUtVS2t6RVVyVWNzTkxiMW9YQlhROEM2N1Q1cWtlQ3A4c3BsYzFSNWlNdWNqTlhac2s4UUxiQlJzbHlJenVqNUI4dHk0V0NoVFBjdGdfNnhGd2h0RTFZRXRyLXF5?oc=5</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/out/policy_events_2026-02-20.xlsx
+++ b/out/policy_events_2026-02-20.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>'트럼프 관세' 첫해 효과 미미했나…작년 美수입 사상 최대 - 연합뉴스</t>
+          <t>트럼프 관세 정책에도...지난해 美 상품 무역적자 사상 최고치 - 조선일보</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>'트럼프 관세' 첫해 효과 미미했나…작년 美수입 사상 최대&amp;nbsp;&amp;nbsp;연합뉴스트럼프 관세 정책에도...지난해 美 상품 무역적자 사상 최고치&amp;nbsp;&amp;nbsp;조선일보트럼프의 관세 폭탄도 美무역적자 해소 못했다&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>트럼프 관세 정책에도...지난해 美 상품 무역적자 사상 최고치&amp;nbsp;&amp;nbsp;조선일보트럼프 관세 효과 미미…美 작년 무역적자 0.2% 감소&amp;nbsp;&amp;nbsp;mt.co.kr트럼프 "관세 없었다면 美 파산…대통령 관세 부과 권한 명확"&amp;nbsp;&amp;nbsp;뉴스1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 17:34:52 GMT</t>
+          <t>Thu, 19 Feb 2026 16:56:00 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE5QVlh4VDIyUzNoYmVWSl8yVXhyQjl2QnpRazJ4M0Z6QWlwTFh2b3VpMGN3R3hIb28zbmxIT2xSQVZ5MUZTQmpKX3gtQmVJNWZvOGVlSGlFeEV5dWPSAWBBVV95cUxOSTVNS3NBQmQwdl9XSXczX3VaMms3TFBCd3hyb3ZFRXpKVkY1RmRBZjlDdXJCcXpLZlhqczNWNWUwQUNibWhUdm04ZzcxbldpWWMtSUgyNzVYcHdlODJzdG0?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxOQWJPRjdLUU9YTWZzWXBSTTRzT3VnaDdCNkxfa1A5YnlaWjl1MHdEQk4xTXFkOHB5NzRaSHotdHlIdENWSklzM0l0bklUZkZCaElrN0hXcy1UVmgyeG1kN2ZLdDEtY2tGbHFWalRUMUtDU0xmNkxVMnp0V0VuTUF3ZmJzRmx3dmN5SHRpcHljQU54elFieHVDN1JfWTN3Z9IBsgFBVV95cUxPU2ZfWi1qcGtDejhaLTExZXRrM1I0cGN3WGw3ekNqTDREajkzdHR4bjc2V0MyNl96R2pwZVYxRXVoYTdabW5pTzljQk44aGZnUHhHTVhWMk9KWlNKa3dBVmpWMnBTMlpzVUhlakRpazNsY0huZlVPS0NkVzB5SDlHbzFnb2dKYXgwaF9HenpaUThDZ202Mk1MS3F1WmpiSXpkZ2RDWXVZU01wSzZudHhmeEZR?oc=5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -661,22 +661,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나 - 마켓인</t>
+          <t>“관세 인상 부담 美 소비자가 진다고? 징계받을 연구”…연준 또 공격한 백악관 - v.daum.net</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나&amp;nbsp;&amp;nbsp;마켓인</t>
+          <t>“관세 인상 부담 美 소비자가 진다고? 징계받을 연구”…연준 또 공격한 백악관&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 08:42:51 GMT</t>
+          <t>Thu, 19 Feb 2026 00:24:45 GMT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1YT1J0QlFtUUt0T0dRSkZxSU5lUEJuSkFjYTZzVjhHbG5ibkRCN2poSUFuYWhMd3pKSnlKNUNYc2NXTkZfanpJbXBFSGpEZGw2Y3pfc2ExenBhZTFVUlBITlY0cmZMWHZIYUVUSUFGQUlodUE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE1KSE5tajR4NU1UQjM0bnNaTjJsdXZiVTBtMTR2N3NOVFNWUXlQbUhaWXNjZGZNRW5aaXBkOG1nczBFcWVCUF9hQ19sWDVpa2M?oc=5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -698,22 +698,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECB “中 대유럽 수출 급증, 美 관세 인상 탓 아냐” - 글로벌이코노믹</t>
+          <t>'50% 관세' 철강·알루미늄 업계 햇볕 드나…美 '관세 조정' 거론 - MTN 머니투데이방송</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ECB “中 대유럽 수출 급증, 美 관세 인상 탓 아냐”&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>'50% 관세' 철강·알루미늄 업계 햇볕 드나…美 '관세 조정' 거론&amp;nbsp;&amp;nbsp;MTN 머니투데이방송</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:06:29 GMT</t>
+          <t>Thu, 19 Feb 2026 08:46:51 GMT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOWTNPNDJkX01GTmk3THFRYTlBNlFNcDZteDVZWU1XbUhsblZKVEt5R2VBNS1JY05Yek9pekpNZ3FxVURyUmptQ1ljN3VxRVUxcUFqcmJWbjh6aUZKc0dsdUZpeVc3RlQzX1RDWHRablBXSlpCSVppc3pJQnc4V3QwdEFOQjBtZkgy?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZEFVX3lxTE91UWp6d2lPd0QzaDY4V2FUdDIteUk4Q1FjRVdtQ29VUEFtd25NMjNGOTN4eEY1czlPUWw3Q1FRZ2h5R2gxeU8zUVVHSE9UbEQ4RFYxaGhLOF9IeVFFMXNBMVhDQTY?oc=5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -735,22 +735,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>美, LS일렉·효성重 변압기에 또 관세 - sedaily.com</t>
+          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나 - 마켓인</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>美, LS일렉·효성重 변압기에 또 관세&amp;nbsp;&amp;nbsp;sedaily.com</t>
+          <t>관세 완화 가능성에 반덤핑 효과까지…철강업계, 숨통 트이나&amp;nbsp;&amp;nbsp;마켓인</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 08:53:49 GMT</t>
+          <t>Thu, 19 Feb 2026 08:42:51 GMT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUkFVX3lxTFBUU3JmS2NoR01UcWt1c05faXRzMzZ1Z0FKblZycU5WQU9uWFFpWGhpRjNHWHVXdUx4TUlZU2c0bC1PZTdGWHJlUXVsaVVlbzRMaXc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1YT1J0QlFtUUt0T0dRSkZxSU5lUEJuSkFjYTZzVjhHbG5ibkRCN2poSUFuYWhMd3pKSnlKNUNYc2NXTkZfanpJbXBFSGpEZGw2Y3pfc2ExenBhZTFVUlBITlY0cmZMWHZIYUVUSUFGQUlodUE?oc=5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -772,22 +772,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야” - 경기일보</t>
+          <t>美, LS일렉·효성重 변압기에 또 관세 - sedaily.com</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야”&amp;nbsp;&amp;nbsp;경기일보장동혁 "이재명 대통령 SNS 답하느라 과로...관세 문제는?"&amp;nbsp;&amp;nbsp;YTN장동혁 "李대통령 SNS에 부동산 말고 관세도 담겨야"&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
+          <t>美, LS일렉·효성重 변압기에 또 관세&amp;nbsp;&amp;nbsp;sedaily.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:50:00 GMT</t>
+          <t>Thu, 19 Feb 2026 08:53:49 GMT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1VS0tkUzFsOHNvZkJ2SU5yeWxWMTNFMHhzY25IWE9oYjRaN2FuS1BOVlVLTUpQcl84LWlnQXZ4M2h3UlJDTEtoNUtZVzBObGJUdnVIbERPMmdKRVE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUkFVX3lxTFBUU3JmS2NoR01UcWt1c05faXRzMzZ1Z0FKblZycU5WQU9uWFFpWGhpRjNHWHVXdUx4TUlZU2c0bC1PZTdGWHJlUXVsaVVlbzRMaXc?oc=5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -809,22 +809,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라” - KBS 뉴스</t>
+          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야” - 경기일보</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라”&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
+          <t>장동혁 “이 대통령, SNS에 부동산만…관세·환율부터 챙겨야”&amp;nbsp;&amp;nbsp;경기일보</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:48:00 GMT</t>
+          <t>Thu, 19 Feb 2026 00:50:00 GMT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BZnZoemIxS182MmhUR3ZXVlpOczhPUVB6aG9Tbm1QdDhQSkhaYVdBWkJ0Rk0tSy1RLVR0bGZnU0JfTzhvNEZyVTBkOGh5cUVNN2NTb25tWlJobVE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE1VS0tkUzFsOHNvZkJ2SU5yeWxWMTNFMHhzY25IWE9oYjRaN2FuS1BOVlVLTUpQcl84LWlnQXZ4M2h3UlJDTEtoNUtZVzBObGJUdnVIbERPMmdKRVE?oc=5</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -846,22 +846,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대 - v.daum.net</t>
+          <t>장동혁 "이재명 대통령 SNS 답하느라 과로...관세 문제는?" - YTN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>장동혁 "이재명 대통령 SNS 답하느라 과로...관세 문제는?"&amp;nbsp;&amp;nbsp;YTN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 19:18:00 GMT</t>
+          <t>Thu, 19 Feb 2026 17:08:00 GMT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9XR2ZaaWlzVVp6OTRaT0dfd1VqQk9tR3FDTHB2cHBpd0pLQzljQ2N5bEU1Ynh5SDlvdGcwUVZOaWo2NWdUQkNmZ3l1cUZIM0E?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFBlVFJXV1JyeWhoclNuVGIzVTFvQ1oyMml6OF9lMDlpY19CanpqWXhrWkw5RXcwb2tDb1daTmxVWjI4QmxkblBodGVmTzB5MXd3X1NXWFdZSVBWbkNtaEHSAYMBQVVfeXFMUFp2UlZtVGpRN1BRQjRVekFJanNaRndXNzI1SVUzdHVmYlJiLWtFVUtkdXNYRy1VcGEyT2xqMG1wV0RPNDRSdlJiS21aOFRCUXE1RzYxMU9CWGgxbG4yc2NlcjVwQ201SEVvZUI3ZmM0RWV3MjluTG94eUNYeWM2akhWZGs?oc=5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -883,22 +883,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>미 대법원, 트럼프 관세 판결 임박...시장 반응에 '촉각' - 글로벌이코노믹</t>
+          <t>장동혁 "李대통령 SNS에 부동산 말고 관세도 담겨야" - edaily.co.kr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>미 대법원, 트럼프 관세 판결 임박...시장 반응에 '촉각'&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>장동혁 "李대통령 SNS에 부동산 말고 관세도 담겨야"&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 21:12:59 GMT</t>
+          <t>Thu, 19 Feb 2026 00:31:34 GMT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNdHl2d293MTRwaFB3bTM4OVhWWDBIM0ZndGVMRDlwT0ZaY2NNNWxXdFdXblJHNFBWMzRWWTZGeEsxclQwZ3FWSnJVNU42eTV6am82ZGZMd3B4d0JNd29WSjl0OXhFRGVwQUpZRVdDSHpOczZacVdJUEQ3VnVQeUxNRk80aURITVdf?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxNQXZsS2plek55SjRIYUdVbnQ4VWoxczZYVVBKc1YtakpxTnF6WFhCakRMVzE3bXBZT0htc2RPNlhuVVpia2V6ajFJWnItWE9vSzBjaGJSSjBuLXJ3MnlrUHdlQ1VoSW5LZGtwNTR3OG9Hd08zLUZXX0xfNXRpNFU0SQ?oc=5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -920,22 +920,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>마일스톤 관세사무소, 유튜브 채널로 “디지털 소통 강화” - 물류신문</t>
+          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라” - KBS 뉴스</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>마일스톤 관세사무소, 유튜브 채널로 “디지털 소통 강화”&amp;nbsp;&amp;nbsp;물류신문</t>
+          <t>인도네시아 대통령 방미…“상호 관세 18% 이하로 낮춰 달라”&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:09:14 GMT</t>
+          <t>Thu, 19 Feb 2026 02:48:00 GMT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1Obm5VUk5BVnkwR3lPbUNKanFTbGpjdTNDMkMzYXBkTG9mNTN0WDJ3NnI3TFVldTB6M0wtTVFrS2RrTmpYb3E1dE5sNnl4OTBPSDA3Y1pfa0lkaXBuNmRTdW1IQU9QRlFSczVB?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BZnZoemIxS182MmhUR3ZXVlpOczhPUVB6aG9Tbm1QdDhQSkhaYVdBWkJ0Rk0tSy1RLVR0bGZnU0JfTzhvNEZyVTBkOGh5cUVNN2NTb25tWlJobVE?oc=5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 미국 지난해 수입 5%↑…무역적자 0.2%↓ - KBS 뉴스</t>
+          <t>관세 성적표는 최악인데…트럼프 “내가 가장 좋아하는 단어는 관세” 또 반복 - 조선일보</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 미국 지난해 수입 5%↑…무역적자 0.2%↓&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
+          <t>관세 성적표는 최악인데…트럼프 “내가 가장 좋아하는 단어는 관세” 또 반복&amp;nbsp;&amp;nbsp;조선일보</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 16:22:00 GMT</t>
+          <t>Thu, 19 Feb 2026 22:12:00 GMT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BS09IRzUzc3A1MElJWldVbkFFbVVnVk9fVThvc1JSVmF3QWg3TVV0WDFTQWdXc0c5XzFtNy1FQWFudTE3SzJEWmhfQTZwTFgzWXpNNm9YWExNTGs?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMingFBVV95cUxPSmVZN1IzWDYxWWJodm1jUzhFV3JkNWhmWl9iaUV5VndJbEVxTzFnemRmUGVFUjZDRGdPYVRydksxdnNJLXhibTRYd2Q5T3FjUE9NU2dZNVpSZFhMYnB3WFVUVm5iWWVkTTJ3LXJmU2labzZNYU1TSUppeVhPRTFZRm1zMzZLeW9DYkFZdzdpV1ZpblJLTTh0MnFjQmd5QdIBsgFBVV95cUxQUVNweTc5SWFheTlRT1hRY0RESWZkdDduaHZQQk14ckJNbGs5S21ZckViVkF0bURNRndHU0EzSkFxajNMU0xhaDc3bkNRb2ZVd2NzZy1QLWNrN3J5ODNrZkhHVkllbDI3cVY1YmVhWUZuQWVBUXlfNEZTdDV0LXlTQnFKZlZwTWVTMXB1TFBhSTVOQ1E0bVRLZi1XTWxBR3dWYl9ZSGZtUk1WUlpPUEdBOWxR?oc=5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>美, 철강·알루미늄 고율 관세 조정 가능성 시사 - 페로타임즈</t>
+          <t>"관세로 적자 78% 줄었다"더니…美수입 '사상 최대' 기록했다 - 중앙일보</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>美, 철강·알루미늄 고율 관세 조정 가능성 시사&amp;nbsp;&amp;nbsp;페로타임즈</t>
+          <t>"관세로 적자 78% 줄었다"더니…美수입 '사상 최대' 기록했다&amp;nbsp;&amp;nbsp;중앙일보</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 20:31:44 GMT</t>
+          <t>Thu, 19 Feb 2026 22:06:17 GMT</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE9rcU5zN3o0dGVyZTBiTWlRd1JVelU2aW81UXVyTGVGUmNRUTJoQ2NUV21SbFV3MGpzWTBpMmVlRURvMGRuLXdsempDb0oyOTlmaktWRFBuZkZ1MHQ1VVpkVjhvWDZ0cllPWDcyOA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTE01T1E5MF9QLTBKck1VdDFRYlRmcGRsa1VoYzIxbWROY3ZNTm9yOWtqOHVXeW1fbTh4d1RMMVo0OEVmRVl3ZnJGWXdXZ3NmUXJzZi12QjN3?oc=5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1031,22 +1031,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>'트럼프 관세'에도 美 수입 사상 최대…무역적자 소폭 축소 - 블로터</t>
+          <t>미 대법원, 트럼프 관세 판결 임박...시장 반응에 '촉각' - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>'트럼프 관세'에도 美 수입 사상 최대…무역적자 소폭 축소&amp;nbsp;&amp;nbsp;블로터</t>
+          <t>미 대법원, 트럼프 관세 판결 임박...시장 반응에 '촉각'&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 19:55:42 GMT</t>
+          <t>Thu, 19 Feb 2026 21:12:59 GMT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaEFVX3lxTE5HMU42RVlBb201WTFMQjBhYkswSU5zTzZVcFN1TTk1amdZVDZYMzh0aFZpSVBLaHRDdTJMRnY3VTZPUFZqTDluNDQ0OFZpWk1vUXhpNXUwVXJHRllIYUU4TUtjZUUyTlFV0gFsQVVfeXFMTzlJUy1IX2pFejVSeFpkb3JMWmJVeV9yTFdpMlRMVG44RWc4ZmJKeERVZVlLWjk0NElGNzNlbFpKdVU0OFNBQjhUMXp6UzRzeDNQbDN1cUhJeUtEaXYxOW5RZ25YNG52WWR6QXhf?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNdHl2d293MTRwaFB3bTM4OVhWWDBIM0ZndGVMRDlwT0ZaY2NNNWxXdFdXblJHNFBWMzRWWTZGeEsxclQwZ3FWSnJVNU42eTV6am82ZGZMd3B4d0JNd29WSjl0OXhFRGVwQUpZRVdDSHpOczZacVdJUEQ3VnVQeUxNRk80aURITVdf?oc=5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>'트럼프 관세'에도 美작년 무역적자 9015억달러…1960년 이후 최대 수준 - edaily.co.kr</t>
+          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대 - v.daum.net</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>'트럼프 관세'에도 美작년 무역적자 9015억달러…1960년 이후 최대 수준&amp;nbsp;&amp;nbsp;edaily.co.kr</t>
+          <t>트럼프 관세 정책에도…美 작년 수입 사상 최대&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 17:52:38 GMT</t>
+          <t>Thu, 19 Feb 2026 19:18:00 GMT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigAFBVV95cUxPTl9OcG5GY3F2NjIxLXp1NVNPWERDTl84cEtESG1nNWlGWWhydUlYZ29HaTcyU1pBLUwxWFJQbEJFdmtPVUhJdERuWkFSS0pWTEU3aVdmX3VCSHR2QUt3MHZ0NG9DZkQ2b2FQRWhyZG1mVzUwMnV4amlYdjZqcFBhWQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE9XR2ZaaWlzVVp6OTRaT0dfd1VqQk9tR3FDTHB2cHBpd0pLQzljQ2N5bEU1Ynh5SDlvdGcwUVZOaWo2NWdUQkNmZ3l1cUZIM0E?oc=5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>트럼프 관세 '무색'…美 작년 무역적자 사상 최고 - v.daum.net</t>
+          <t>[국제 경제 흐름 읽기] 트럼프의 관세정책에도 지난해 미국 상품 무역적자 사상 최고치 - 포커스온경제</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>트럼프 관세 '무색'…美 작년 무역적자 사상 최고&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>[국제 경제 흐름 읽기] 트럼프의 관세정책에도 지난해 미국 상품 무역적자 사상 최고치&amp;nbsp;&amp;nbsp;포커스온경제</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 21:24:19 GMT</t>
+          <t>Thu, 19 Feb 2026 22:14:39 GMT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE5iU3FsQ2ZXckRZcHhvTjFuZy1NTG5LcHh2LWtrc2FnLXhwUTRGYXA3bTJVemVWOGx5aWhuZU95T2U0ZjJDNThkcFhOb0VPMjQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTFBTVXJsbnNWNlNlY3p5b0RXQnNtQ0wyQkNGd3VVVV90SnN1Ymh5Ylk5VTBXVFpkY3V5NnZ5UHkwdU5oQVNiZWRlZTV3XzFUWFZzb3MyOFc5T2JMR3E1OHc?oc=5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1142,22 +1142,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어 - 연합뉴스</t>
+          <t>[올림픽] 여자부서 먼저 성사된 아이스하키 '관세 대리전'…미국 연장 승 - 연합뉴스 한민족센터</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어&amp;nbsp;&amp;nbsp;연합뉴스</t>
+          <t>[올림픽] 여자부서 먼저 성사된 아이스하키 '관세 대리전'…미국 연장 승&amp;nbsp;&amp;nbsp;연합뉴스 한민족센터</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 15:14:21 GMT</t>
+          <t>Thu, 19 Feb 2026 23:16:33 GMT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBNTGNCUUxaUk5QM09TQ0hXZ05TdDdSbXQwY3I4Z3JNS0dPWjBMcm9Na1FCXzdpbGc1WFNHanFNMDBxMlA4YWNvN2ZLWEI4OFZYOEdtMWo5Ry0xUTTSAWBBVV95cUxOS1ItbGNPczNsSjlZZVBFY0RxLVlTcFRncXIwSUpyWVp0blRLNWtETWQ5ZWZjYkFwdXBSa2FFaVREYzY1M0xaekpNcktmN1gtcGUyTmNHc1BCRm5iYnJIZno?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidEFVX3lxTE5jcUVMQm53X0V2eTlVY0xQQXFvaHMyNGJDVlNMLUZFdjZQLTB0MHlfd3I3emVESS1aTTdaWTRtaEtZbldDRFd3VVFzVWxwQVJDTU8tc1dWam15UUptTVAzYjVEckxob3lXa3R1VGRvem1JdEhh?oc=5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1179,22 +1179,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>'트럼프 관세'가 쏘아 올린 인도의 역습... EU와 '20억 명' 무관세 동맹 타결 - 글로벌이코노믹</t>
+          <t>"관세벽 아무리 세워도"…작년 美무역적자 9015억달러 - 한국경제</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>'트럼프 관세'가 쏘아 올린 인도의 역습... EU와 '20억 명' 무관세 동맹 타결&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>"관세벽 아무리 세워도"…작년 美무역적자 9015억달러&amp;nbsp;&amp;nbsp;한국경제</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 20:48:56 GMT</t>
+          <t>Thu, 19 Feb 2026 14:30:49 GMT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxON3hhVnRzbUhaVDFEdkRpd1dTd0dOYXZwWEVaYWVfdkJ1cjZiMXNBcy1aM0RlLXFZcDU4OGVxX3o3QndMMGpZNWZDcE9lTGZ1VTJvdTF5TXp2VlJmMVB5ZjVWNU9HWFNVdlpGdko1dG9JSHJNeDdZZ0NXRWFrYUZIcS0zcmZldXFu?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWkFVX3lxTE9URTA2S0VnOGNxQ3NSM0tCX3QzbE1WTnk0UFZldHdZcU1fbHdjU3VIa3BKamNoNzRZSFBiNkU0ZHU1R004eml6UHRhb1F3alNjMHctUDllT3llUdIBVEFVX3lxTE9CNkxYQmh4QlZMbHFXZTRDVnRraGNJejktLWFvT3hzWVdWdUlUVGhKbzhMSXdyTDlWZFB5d281QTJ5eUJkZkd4bElZdzdEY0RYcEpOUQ?oc=5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>'트럼프, 관세 낮춰주세요' 인도네시아 "18% 이하로" - v.daum.net</t>
+          <t>트럼프 관세 '무색'…美 작년 무역적자 사상 최고 - v.daum.net</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>'트럼프, 관세 낮춰주세요' 인도네시아 "18% 이하로"&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>트럼프 관세 '무색'…美 작년 무역적자 사상 최고&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 04:15:01 GMT</t>
+          <t>Thu, 19 Feb 2026 21:24:19 GMT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE1MNzJNNHpKVmtRUlNyWTFzcW0yN2ZIa1E2QVZib0ZGVTQxZXpXeWVmeENHMGRYWHdEUlB6OVZ4a0NvYTB1Q0JZNDFEdGRfY0U?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTE5iU3FsQ2ZXckRZcHhvTjFuZy1NTG5LcHh2LWtrc2FnLXhwUTRGYXA3bTJVemVWOGx5aWhuZU95T2U0ZjJDNThkcFhOb0VPMjQ?oc=5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1253,22 +1253,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 미국 지난해 수입 5% 증가...상품 적자 확대 - YTN</t>
+          <t>트럼프 관세에도 美무역적자 그대로…수입은 사상최대로 늘었다 - 동아일보</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>트럼프 관세에도 미국 지난해 수입 5% 증가...상품 적자 확대&amp;nbsp;&amp;nbsp;YTN</t>
+          <t>트럼프 관세에도 美무역적자 그대로…수입은 사상최대로 늘었다&amp;nbsp;&amp;nbsp;동아일보</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 15:47:00 GMT</t>
+          <t>Thu, 19 Feb 2026 21:01:00 GMT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXkFVX3lxTE1FVk9yc3hXcWlkY0Vfalh2cnlCb0tGRjF5X3dvTWZLclZqeHJBNTNnZndkejRVT3lSYzhsNEZjdnZXNlUyem1tdDhTcmRmTWdsOWxKcFE1LU5vdVpjNEHSAYMBQVVfeXFMTkdhbU1JUUtRdThZWXNvaks3eU5XR1pFcUdmRnJKcGNva1RadXpDNm5pRS04cmJwTkZMNlhvTEFNZEpvdHUzbld4QkxQbVN1TW1jakVPdWppX2hpTkd4ZDl2ald5OGFHY2pud3lJRXl6cnFGWG1odmRoVzJjV05DWmFhSU0?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE4zLUxyQlpwb0ZSalFxZzItMjdzZ3ZVa0NZOGxlS2RhMEh4bkpDekhMQjFjS1MtZUtKeEhfUFNYUUh3ZjZVa2t2M1A0dm5FZXp6VEN4djFwMmdwLS1jTmhJZnBZcXBnVDlkRk1FRnI2eDVwTlHSAWZBVV95cUxQcHFwUFo5Y1dsc29lcEE5RHNUSVNIaXJyUzVoeUxyU2tacWs1OWR4T2xKQ0RYZTNGYlROdTBrRENjX19MV1pxZEprM0h0YnNldnlEUXRYaGdSdGtIcWJyaTdmYmdBbEE?oc=5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1290,22 +1290,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문 - 글로벌이코노믹</t>
+          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어 - 연합뉴스</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>트럼프 관세에도 美 작년 수입 5%↑…무역적자는 조금 줄어&amp;nbsp;&amp;nbsp;연합뉴스</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 18:55:00 GMT</t>
+          <t>Thu, 19 Feb 2026 15:14:21 GMT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNXy0tSUI2QndzSVZSTDhObnVWT3hPVTBVQVRjeU1CdFB6bkdRLUdaa0ZOaEhvd1NTcWhKTlk1dkxIS1JLY012aTVHU3RlQkxkaGNwckxYQ0JtMEtGODNQZGlLV2xiWFZMQXB5UGY0VU1FYWhtZDI5emF4bHBUQnJDUmE0S2M4U1RP?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTFBNTGNCUUxaUk5QM09TQ0hXZ05TdDdSbXQwY3I4Z3JNS0dPWjBMcm9Na1FCXzdpbGc1WFNHanFNMDBxMlA4YWNvN2ZLWEI4OFZYOEdtMWo5Ry0xUTTSAWBBVV95cUxOS1ItbGNPczNsSjlZZVBFY0RxLVlTcFRncXIwSUpyWVp0blRLNWtETWQ5ZWZjYkFwdXBSa2FFaVREYzY1M0xaekpNcktmN1gtcGUyTmNHc1BCRm5iYnJIZno?oc=5</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1327,22 +1327,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>브라질, 中 철강에 톤당 최대 670달러 반덤핑 관세...5년 적용 - 글로벌이코노믹</t>
+          <t>"중국산 다 뺐는데, 왜 대만만 웃나" 트럼프 관세 2년이 만든 기괴한 무역 지도 - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>브라질, 中 철강에 톤당 최대 670달러 반덤핑 관세...5년 적용&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
+          <t>"중국산 다 뺐는데, 왜 대만만 웃나" 트럼프 관세 2년이 만든 기괴한 무역 지도&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 20:45:00 GMT</t>
+          <t>Thu, 19 Feb 2026 22:25:09 GMT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxONkdCUkJja3ZHWUdjelVRUEsyU0NNSVloMFc1ZFlYUXBHeTM3LW1ZQTl4Tnk3Nkl4RVduUzNLcHVRRjNsNzFMZWtsTy1hbmJYVXVCbGRIOXZ3Z2hRZWtqZUVYZWFPQkU2X3BmQ3psWF9mbjMzeDBNd1lRZk9XTXRsWmt3NWRzRUVN?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxOR3gwN2tjTXF5OWNEVUJiY0dzYk9zVEx3ODFPNVNQTThKYWRqamw1VzRzaUI5dHYxWVRSdnR3QkpaZVVjSUU0T0JESUVGX3lSMjVCTTBPWHZ3dG9LWkh5YUJYeVdma2dRNkpGbnV1V3JhcVZIaFBvd1RfWXdyYTdoTmtTT0ZvakVk?oc=5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1364,22 +1364,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>장동혁 "이 대통령 SNS에 온통 부동산뿐…관세 해결부터" - 뉴스토마토</t>
+          <t>'트럼프 관세'가 쏘아 올린 인도의 역습... EU와 '20억 명' 무관세 동맹 타결 - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>장동혁 "이 대통령 SNS에 온통 부동산뿐…관세 해결부터"&amp;nbsp;&amp;nbsp;뉴스토마토</t>
+          <t>'트럼프 관세'가 쏘아 올린 인도의 역습... EU와 '20억 명' 무관세 동맹 타결&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:17:24 GMT</t>
+          <t>Thu, 19 Feb 2026 20:48:56 GMT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYEFVX3lxTE9RRXEyMUZZbEtnSUFqdzJrT2drQXhKRWtlczA3ejRnWXM3Uy1nT3I1VTRPMWJCdG9rektZZ2VnM1JNNWFSc0tEbDhWNFlreHRXWTFiNUZabFRKRXNzNGxLeg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxON3hhVnRzbUhaVDFEdkRpd1dTd0dOYXZwWEVaYWVfdkJ1cjZiMXNBcy1aM0RlLXFZcDU4OGVxX3o3QndMMGpZNWZDcE9lTGZ1VTJvdTF5TXp2VlJmMVB5ZjVWNU9HWFNVdlpGdko1dG9JSHJNeDdZZ0NXRWFrYUZIcS0zcmZldXFu?oc=5</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>“관세 장벽 넘어라” 펜실베이니아부터 앨라배마까지… 미국 전역에 꽂히는 빅파마 깃발 - 금융경제플러스</t>
+          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문 - 글로벌이코노믹</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>“관세 장벽 넘어라” 펜실베이니아부터 앨라배마까지… 미국 전역에 꽂히는 빅파마 깃발&amp;nbsp;&amp;nbsp;금융경제플러스</t>
+          <t>트럼프 관세 폭탄, 미국 소비자가 94% 부담…뉴욕 연준 연구진에 '징계' 요구 파문&amp;nbsp;&amp;nbsp;글로벌이코노믹</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 21:00:00 GMT</t>
+          <t>Thu, 19 Feb 2026 18:55:00 GMT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTE5XcjgwcmFFRVhrbzBRMHhKZldOS2NnektOS1p3SXdFTkZ6MFcyTGNoc1dKdTh5YkVzRlpraHBBbWo3Rk5ubEUwcDkxWFJBVDRRUmNYLThzOW1NQkRfcTZ2R3JVS3lQX1cxdTduaQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFBVV95cUxNXy0tSUI2QndzSVZSTDhObnVWT3hPVTBVQVRjeU1CdFB6bkdRLUdaa0ZOaEhvd1NTcWhKTlk1dkxIS1JLY012aTVHU3RlQkxkaGNwckxYQ0JtMEtGODNQZGlLV2xiWFZMQXB5UGY0VU1FYWhtZDI5emF4bHBUQnJDUmE0S2M4U1RP?oc=5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1433,27 +1433,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FTA</t>
+          <t>관세</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고 - 스트레이트뉴스</t>
+          <t>‘트럼프 관세’ 첫해 효과 미미했나…지난해 미 수입 사상 최대 - KBS 뉴스</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;스트레이트뉴스</t>
+          <t>‘트럼프 관세’ 첫해 효과 미미했나…지난해 미 수입 사상 최대&amp;nbsp;&amp;nbsp;KBS 뉴스</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:51:41 GMT</t>
+          <t>Thu, 19 Feb 2026 16:22:00 GMT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1rcHNOTEZNQktlMHR0NjNNb3p6NFRKY3lWX01vWHJJTmFmZ3JiZEh4bWdScFVTU0NYY2lSY0VpNXBHclpoRl9OdmZ0b3ZLNDVLX0M0MVpYR3Y0cjdJYXEyZ1VxV2Z4UXZuaXR1OHJDNC1mMm_SAXdBVV95cUxQQVlIZEFoRTVoZ3BmUHJCQUdENEJTbDBmYUFMWUFlVU55ZEJXNmRnWV80dmVXRl8taDRRUWZMWXBDbXctdFVoazVyVGk3QVNOSmx4UXp5T1ZqNUtzUGJzVlhmTE51ZXlUUGJjdFdpeW41UzBwV0tmdw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE9BS09IRzUzc3A1MElJWldVbkFFbVVnVk9fVThvc1JSVmF3QWg3TVV0WDFTQWdXc0c5XzFtNy1FQWFudTE3SzJEWmhfQTZwTFgzWXpNNm9YWExNTGs?oc=5</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1475,22 +1475,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고 - gukjenews.com</t>
+          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고 - 스트레이트뉴스</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;gukjenews.com</t>
+          <t>포항상의, 2026년 OK FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;스트레이트뉴스</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:00:35 GMT</t>
+          <t>Thu, 19 Feb 2026 07:51:41 GMT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFBybUE4VlBWeFJYajJMUWoyc09yZUc4UlNrU280NVkzS3lBaXZuVFdZVl81WEtZdk9uSnRMeDhmd281VDVoelFfQmlVMGpEUlJTaHktV3ZNMkZTREFrVlhLUThXdnBZMDFxUWdRUWxR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic0FVX3lxTE1rcHNOTEZNQktlMHR0NjNNb3p6NFRKY3lWX01vWHJJTmFmZ3JiZEh4bWdScFVTU0NYY2lSY0VpNXBHclpoRl9OdmZ0b3ZLNDVLX0M0MVpYR3Y0cjdJYXEyZ1VxV2Z4UXZuaXR1OHJDNC1mMm_SAXdBVV95cUxQQVlIZEFoRTVoZ3BmUHJCQUdENEJTbDBmYUFMWUFlVU55ZEJXNmRnWV80dmVXRl8taDRRUWZMWXBDbXctdFVoazVyVGk3QVNOSmx4UXp5T1ZqNUtzUGJzVlhmTE51ZXlUUGJjdFdpeW41UzBwV0tmdw?oc=5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1512,22 +1512,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집 - 프레시안</t>
+          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고 - gukjenews.com</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집&amp;nbsp;&amp;nbsp;프레시안</t>
+          <t>경북동부FTA통상진흥센터, 올해 FTA 컨설팅 용역수행사 선정 공고&amp;nbsp;&amp;nbsp;gukjenews.com</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 04:37:36 GMT</t>
+          <t>Thu, 19 Feb 2026 07:00:35 GMT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1zX0Vjd3VVSXJuZUpCUkdMTW5ZZHRXMlZFSmhOSWJoVUVpZXhVM1IwbzdMVVRFZ0dJNXBSZlIyMUk4S2NBQnk2THJ0TmtHbzY0a2dBRDBjMkpkNHQ4N2hyd09ZLWRNb3FQWTZN?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTFBybUE4VlBWeFJYajJMUWoyc09yZUc4UlNrU280NVkzS3lBaXZuVFdZVl81WEtZdk9uSnRMeDhmd281VDVoelFfQmlVMGpEUlJTaHktV3ZNMkZTREFrVlhLUThXdnBZMDFxUWdRUWxR?oc=5</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1549,22 +1549,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화 - 경북신문</t>
+          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집 - 프레시안</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화&amp;nbsp;&amp;nbsp;경북신문</t>
+          <t>포항상공회의소, ‘2026년 OK FTA 컨설팅’ 용역수행사 모집&amp;nbsp;&amp;nbsp;프레시안</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 04:44:18 GMT</t>
+          <t>Thu, 19 Feb 2026 04:37:36 GMT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTE1YZ1REZWE1d0tEZXFnamtobi1WeGpQYjFtX0o5TVpjOVJWMEdJM0FQY0JoakpqOHNXQS1MZm4xeUNfVUhHa3N5Y0xQcUhYSFlTNlc2YVRGUkE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMia0FVX3lxTE1zX0Vjd3VVSXJuZUpCUkdMTW5ZZHRXMlZFSmhOSWJoVUVpZXhVM1IwbzdMVVRFZ0dJNXBSZlIyMUk4S2NBQnk2THJ0TmtHbzY0a2dBRDBjMkpkNHQ4N2hyd09ZLWRNb3FQWTZN?oc=5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1586,22 +1586,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집 - 이뉴스투데이</t>
+          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화 - 경북신문</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집&amp;nbsp;&amp;nbsp;이뉴스투데이</t>
+          <t>포항상의, ‘OK FTA 컨설팅’ 수행사 모집…수출기업 경쟁력 강화&amp;nbsp;&amp;nbsp;경북신문</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:29:36 GMT</t>
+          <t>Thu, 19 Feb 2026 04:44:18 GMT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9NTDdBMDZ5Sml4VFlFN2M2Q3JmTzZxOWlDdXNOX2wzVTdrRWlBYkNEOFNKWWhfLWZ6NzJ4U0lJeHc2aEhSYUczU1BRU29rNGNkU04yVE5GZGxGbjdtSFh1dnQ5cU1JMEhzYW5BS2l1bzjSAXRBVV95cUxOSEc5cnFac3d2VFZ1dWUzaGNJRGNtS2V1NHF6dkFUTGpSeThVQjVnbmVrTFNtUkRsRVp5WWFqS1JiSGgzd1Q2ZUttQUlKbzVZOS1wVDNkLWh1UU5JTmRRU0xpLXBpRGxnOThEeHphaTNmVDhaSg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWEFVX3lxTE1YZ1REZWE1d0tEZXFnamtobi1WeGpQYjFtX0o5TVpjOVJWMEdJM0FQY0JoakpqOHNXQS1MZm4xeUNfVUhHa3N5Y0xQcUhYSFlTNlc2YVRGUkE?oc=5</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1623,22 +1623,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모 - 위키트리</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집 - 이뉴스투데이</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모&amp;nbsp;&amp;nbsp;위키트리</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 사업 본격 추진… 수행사 모집&amp;nbsp;&amp;nbsp;이뉴스투데이</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 05:01:00 GMT</t>
+          <t>Thu, 19 Feb 2026 09:29:36 GMT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTFBtVE1UY0dLaTVlRUMwd1EzTm9zdk1ZQm1DeXNDUUhPREZwOU5jR1ppNDBXSTRIN1FwdURGRGpFQmFMRzJ2TUtMUC1fb0RLZjhkZ0lXdldR?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9NTDdBMDZ5Sml4VFlFN2M2Q3JmTzZxOWlDdXNOX2wzVTdrRWlBYkNEOFNKWWhfLWZ6NzJ4U0lJeHc2aEhSYUczU1BRU29rNGNkU04yVE5GZGxGbjdtSFh1dnQ5cU1JMEhzYW5BS2l1bzjSAXRBVV95cUxOSEc5cnFac3d2VFZ1dWUzaGNJRGNtS2V1NHF6dkFUTGpSeThVQjVnbmVrTFNtUkRsRVp5WWFqS1JiSGgzd1Q2ZUttQUlKbzVZOS1wVDNkLWh1UU5JTmRRU0xpLXBpRGxnOThEeHphaTNmVDhaSg?oc=5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1660,22 +1660,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집 - 경북일보</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모 - 위키트리</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집&amp;nbsp;&amp;nbsp;경북일보</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역수행사 선정 공모&amp;nbsp;&amp;nbsp;위키트리</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:10:58 GMT</t>
+          <t>Thu, 19 Feb 2026 05:01:00 GMT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wTU1hcmgwQW9VVnRFQlR0azlDZTFVejc4QmRnZ0tMM2Y0bVhLT2VWWVB1dVJldk5PSzhDeHhLQ0JMcDlraVlHcnptb3VPelFJTnBreHR1ZHRaODdRQnFKb2FPcGYxSWIwV2pGMGM1MA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVkFVX3lxTFBtVE1UY0dLaTVlRUMwd1EzTm9zdk1ZQm1DeXNDUUhPREZwOU5jR1ppNDBXSTRIN1FwdURGRGpFQmFMRzJ2TUtMUC1fb0RLZjhkZ0lXdldR?oc=5</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1697,22 +1697,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시 - 산업종합저널</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집 - 경북일보</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시&amp;nbsp;&amp;nbsp;산업종합저널</t>
+          <t>경북동부FTA통상진흥센터, 2026년 OK FTA 컨설팅 용역수행사 모집&amp;nbsp;&amp;nbsp;경북일보</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 00:48:40 GMT</t>
+          <t>Thu, 19 Feb 2026 09:10:58 GMT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1vcUd1RTFmY0wteFRoUmdEMTA4WWlYZXdrMTh6Q3QzaDZnYS1jWVdZLW1LMmNZbDV1alFYOG54V1FGNlRMc3BIclZhekxxVTNoWElJ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wTU1hcmgwQW9VVnRFQlR0azlDZTFVejc4QmRnZ0tMM2Y0bVhLT2VWWVB1dVJldk5PSzhDeHhLQ0JMcDlraVlHcnptb3VPelFJTnBreHR1ZHRaODdRQnFKb2FPcGYxSWIwV2pGMGM1MA?oc=5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1734,22 +1734,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집 - 열린뉴스통신</t>
+          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시 - 산업종합저널</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집&amp;nbsp;&amp;nbsp;열린뉴스통신</t>
+          <t>보호무역 파고 넘을 ‘비책’ 나왔다… 16가지 ‘FTA 생존 공식’ 제시&amp;nbsp;&amp;nbsp;산업종합저널</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 06:41:12 GMT</t>
+          <t>Thu, 19 Feb 2026 00:48:40 GMT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1sSGZicC1YcmlBZVE2d0NZaVBLdHpNQWYyckh2RGJrUlNfUHc1ZG5VcEhGMFZyNEtjVnVyMUxCa05rOGU0YkloVDhROFVIYXNXYVdWQWZwNkxXNmROSDRvRGNINUNkQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1vcUd1RTFmY0wteFRoUmdEMTA4WWlYZXdrMTh6Q3QzaDZnYS1jWVdZLW1LMmNZbDV1alFYOG54V1FGNlRMc3BIclZhekxxVTNoWElJ?oc=5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1766,27 +1766,27 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>원산지</t>
+          <t>FTA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발 - v.daum.net</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집 - 열린뉴스통신</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발&amp;nbsp;&amp;nbsp;v.daum.net</t>
+          <t>포항상공회의소, 2026년 OK FTA 컨설팅 용역 수행사 모집&amp;nbsp;&amp;nbsp;열린뉴스통신</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:20:38 GMT</t>
+          <t>Thu, 19 Feb 2026 06:41:12 GMT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBkX0d2MXlLbHRlMGhPQmVOczFKOE9iR3BJS0FubG5NUmVPaDBXWnB1WXk4aVFMV1JGUTBXY05SR1dwRXoyYmxwX0V5WFg0dnc?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZkFVX3lxTE1sSGZicC1YcmlBZVE2d0NZaVBLdHpNQWYyckh2RGJrUlNfUHc1ZG5VcEhGMFZyNEtjVnVyMUxCa05rOGU0YkloVDhROFVIYXNXYVdWQWZwNkxXNmROSDRvRGNINUNkQQ?oc=5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1808,32 +1808,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설 - 서울신문</t>
+          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발 - v.daum.net</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설&amp;nbsp;&amp;nbsp;서울신문</t>
+          <t>‘나주배 둔갑’ 설 대목 노린 원산지 속임수···광주·전남선 40건 적발&amp;nbsp;&amp;nbsp;v.daum.net</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 07:05:59 GMT</t>
+          <t>Thu, 19 Feb 2026 09:20:38 GMT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1RNnhqdllqNC1uZlQ2QkoyMVBObnRiNEVqN2tpOGR2eDktUWwxZjlyU2Rxc1dfSWJOVnowSk5QRlBhUzRLajI4aUs0WUNfQTllWTJkd0hsMzZxdEN6TWlnTzEzTkJ5NjBZeW1fSWZDQQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT0FVX3lxTFBkX0d2MXlLbHRlMGhPQmVOczFKOE9iR3BJS0FubG5NUmVPaDBXWnB1WXk4aVFMV1JGUTBXY05SR1dwRXoyYmxwX0V5WFg0dnc?oc=5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1845,32 +1845,32 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15도 안팎 큰 일교차…경상권 건조·강원산지 강풍 유의 [날씨 LIVE] - 이투데이</t>
+          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설 - 서울신문</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15도 안팎 큰 일교차…경상권 건조·강원산지 강풍 유의 [날씨 LIVE]&amp;nbsp;&amp;nbsp;이투데이</t>
+          <t>‘국산 둔갑 우회수출’ 막아라…관세청, ‘원산지 세탁·밀수’ 수사팀 신설&amp;nbsp;&amp;nbsp;서울신문</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 20:05:00 GMT</t>
+          <t>Thu, 19 Feb 2026 07:05:59 GMT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE9adXdCTUEtanpLM2NQS1ItVW0xVURwUFYyamRldnQwM1JRZHBSTHVocVF2aWZicWZ3ckQzRUFBRzNEVk8yNUVXZEVMeEhaWFh3UHdHdQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE1RNnhqdllqNC1uZlQ2QkoyMVBObnRiNEVqN2tpOGR2eDktUWwxZjlyU2Rxc1dfSWJOVnowSk5QRlBhUzRLajI4aUs0WUNfQTllWTJkd0hsMzZxdEN6TWlnTzEzTkJ5NjBZeW1fSWZDQQ?oc=5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1882,32 +1882,32 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설 - 쿠키뉴스</t>
+          <t>15도 안팎 큰 일교차…경상권 건조·강원산지 강풍 유의 [날씨 LIVE] - 이투데이</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설&amp;nbsp;&amp;nbsp;쿠키뉴스</t>
+          <t>15도 안팎 큰 일교차…경상권 건조·강원산지 강풍 유의 [날씨 LIVE]&amp;nbsp;&amp;nbsp;이투데이</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 08:52:12 GMT</t>
+          <t>Thu, 19 Feb 2026 20:05:00 GMT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiY0FVX3lxTE5IV2tkX3FQZmx3ZzNvTFRDLS1wWUIwUGNnekVVczVQLW5TaVBIcVBZZ1FEbHZSeTBQclFxY3VKRHVTYmo1djRYZmI2Z1BEZGhUS0VLWTA4aUpmbW4zRFJQVXg0TQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVEFVX3lxTE9adXdCTUEtanpLM2NQS1ItVW0xVURwUFYyamRldnQwM1JRZHBSTHVocVF2aWZicWZ3ckQzRUFBRzNEVk8yNUVXZEVMeEhaWFh3UHdHdQ?oc=5</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>중</t>
+          <t>하</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1919,32 +1919,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발 - 경북일보</t>
+          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설 - 쿠키뉴스</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발&amp;nbsp;&amp;nbsp;경북일보</t>
+          <t>'원산지 둔갑·전략물자 불법수출 정조준'… 관세청, 무역안보조사팀 신설&amp;nbsp;&amp;nbsp;쿠키뉴스</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 09:33:05 GMT</t>
+          <t>Thu, 19 Feb 2026 08:52:12 GMT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5mY0pVQUYwZmhsMEtvX3JSMGNzdEU2OWFEMFVwMkw5VzN2RHR1d0ZDZEhfMVlGMnR4R0FkdFZWVkZ2TzgzY0RjejNiUlNxUWRFa1o5R01fX0dhd21SN3BSUUZlSHlHYy15dFYtbEV2SQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiY0FVX3lxTE5IV2tkX3FQZmx3ZzNvTFRDLS1wWUIwUGNnekVVczVQLW5TaVBIcVBZZ1FEbHZSeTBQclFxY3VKRHVTYmo1djRYZmI2Z1BEZGhUS0VLWTA4aUpmbW4zRFJQVXg0TQ?oc=5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>하</t>
+          <t>중</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1956,22 +1956,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시 - 신아일보</t>
+          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발 - 경북일보</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;신아일보</t>
+          <t>설 성수품 원산지 부정표시 여전…최근 5년간 7천700여건 적발&amp;nbsp;&amp;nbsp;경북일보</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 03:06:32 GMT</t>
+          <t>Thu, 19 Feb 2026 09:33:05 GMT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wRGF1V0JpdUl3YnZqd0MzWjVOcjJuSG8zLS02d3FCdXV0N2I1azgxdlIyWnhTWWZsbDVtdE8xWUN2RHVNVVViamZ0NUJfaFllcFAtZXMybm9wcWw1ZU1oYXNESmpOU1hmWGFRanZ2Zw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE5mY0pVQUYwZmhsMEtvX3JSMGNzdEU2OWFEMFVwMkw5VzN2RHR1d0ZDZEhfMVlGMnR4R0FkdFZWVkZ2TzgzY0RjejNiUlNxUWRFa1o5R01fX0dhd21SN3BSUUZlSHlHYy15dFYtbEV2SQ?oc=5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1993,22 +1993,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발 - 한국식품의약신문</t>
+          <t>[오늘날씨] 전국 맑고 일교차 15도 이상…내일부터 해안·강원산지 순간풍속 70km/h 강풍 - 더쎈뉴스</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발&amp;nbsp;&amp;nbsp;한국식품의약신문</t>
+          <t>[오늘날씨] 전국 맑고 일교차 15도 이상…내일부터 해안·강원산지 순간풍속 70km/h 강풍&amp;nbsp;&amp;nbsp;더쎈뉴스</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:01:50 GMT</t>
+          <t>Thu, 19 Feb 2026 22:53:50 GMT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTFBaYU9fUC1TLTVrcVltcTk1ODJnTkJRQmJjTUhyX0l0Wm5lMjIxMG9BLUFtS1p3RHBtNVBNalhNZTIzaU5fN3o3aXVVdUVBOHRyaXdZQWllWEhLYjVZVW1rTUtnQThxV00?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTE5UemFxeEJwNTZ6N1BqbXpRNWVZeGtZNzVKOHotNVpXTm94TTdnd04yOW1DaGhaYjA3XzliX2UzaTNDUGhTMXZiaGxwb1Q3bllhRU1RTnZraU9HdXVNZ3hrYzJhd3ZZLVE?oc=5</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -2030,22 +2030,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼 - 위클리오늘</t>
+          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시 - 신아일보</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼&amp;nbsp;&amp;nbsp;위클리오늘</t>
+          <t>홍천군, 설 명절 대비 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;신아일보</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 01:37:00 GMT</t>
+          <t>Thu, 19 Feb 2026 03:06:32 GMT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE1zbThRQzVXbFI1T3ppSXl4Yi0wcHY4c2VPZS00TGxMUWZ0SjNxLTRxTExGWi1YbkpSUFl6YVRKMlpacklyTzZTYkZad2VLWGtoUTIyd1JudmtaTGh2WHRZZE4wOV90d2dwZXBlc1B3?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib0FVX3lxTE0wRGF1V0JpdUl3YnZqd0MzWjVOcjJuSG8zLS02d3FCdXV0N2I1azgxdlIyWnhTWWZsbDVtdE8xWUN2RHVNVVViamZ0NUJfaFllcFAtZXMybm9wcWw1ZU1oYXNESmpOU1hmWGFRanZ2Zw?oc=5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2067,22 +2067,22 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시 - 웹이코노미</t>
+          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발 - 한국식품의약신문</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;웹이코노미</t>
+          <t>원산지 표시 위반 설 성수품, 5년간 7,782건 적발&amp;nbsp;&amp;nbsp;한국식품의약신문</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 02:29:03 GMT</t>
+          <t>Thu, 19 Feb 2026 02:01:50 GMT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMickFVX3lxTE90OFRKOHNXRERlY3JQRXVYWXU2cmJuRU8zX1RWd3lhalJOTHI1WXVfZmNvRS1Sa0JWeVNHbWVLQkxBa0dQLS1qRmhVR1Jna2d5MGxJd3RyR3hCajVLa1N6MS03bFpwMWtBU0VlTVNrT0FwUQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZ0FVX3lxTFBaYU9fUC1TLTVrcVltcTk1ODJnTkJRQmJjTUhyX0l0Wm5lMjIxMG9BLUFtS1p3RHBtNVBNalhNZTIzaU5fN3o3aXVVdUVBOHRyaXdZQWllWEhLYjVZVW1rTUtnQThxV00?oc=5</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2092,34 +2092,34 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>수출통제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[단독] 희토류 中 의존도 낮춘다…靑 현대차 등 기업과 비공개 회동 - 네이트</t>
+          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼 - 위클리오늘</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[단독] 희토류 中 의존도 낮춘다…靑 현대차 등 기업과 비공개 회동&amp;nbsp;&amp;nbsp;네이트</t>
+          <t>[위클리오늘] 농축산식품 원산지 표시 위반 5년간 7782건...여전히 근절 안 돼&amp;nbsp;&amp;nbsp;위클리오늘</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 21:05:00 GMT</t>
+          <t>Thu, 19 Feb 2026 01:37:00 GMT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1ETTg2R3BOS2ZmWnFIbWlOT2NKYWZEM3hteUxTMXdpVS1IdF9WUm9PbWxZVE0zSU1TLWxNNnJHdUptaWdleHA4OXNSV0dDOTI0b0RZ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE1zbThRQzVXbFI1T3ppSXl4Yi0wcHY4c2VPZS00TGxMUWZ0SjNxLTRxTExGWi1YbkpSUFl6YVRKMlpacklyTzZTYkZad2VLWGtoUTIyd1JudmtaTGh2WHRZZE4wOV90d2dwZXBlc1B3?oc=5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2129,34 +2129,34 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>수출통제</t>
+          <t>원산지</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈 - Chosunbiz</t>
+          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시 - 웹이코노미</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈&amp;nbsp;&amp;nbsp;Chosunbiz</t>
+          <t>홍천군, 설 명절 맞아 수산물 원산지 표시 특별점검 실시&amp;nbsp;&amp;nbsp;웹이코노미</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 03:17:08 GMT</t>
+          <t>Thu, 19 Feb 2026 02:29:03 GMT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxNWDdoTGg4NjIxQk5pbmptb0NuM2RXeW9XTklBTzdqMGlDWWJaQlVwdjJUejY5NnJmd0RMeWprYVZYSDZldEROemNzUTRfakpKcVFfeG5tWTRmWVdUWERXXy0yRTJGSmlLbW5oTm9lWHlnNEg1YmlIVERvdDR5dVBObzRra9IBlwFBVV95cUxONjZzbHNjYU1WT2pxZ3FtVFkzUWpUQU9ZRVk3QlR3ejNQT3g4cG1pOHVaSHo1N0ZFOXROTVRFWkFPcy0zSjBZOElUUU1sM2dWaUpTOUxma2xxTXpTNFJGb0Q5bVg5Y19LQVNUQ0tSSW9PZWVzUzNpNjB2S1Y0TExqVVFBSlNFNERaV1RuRkprM0xQM2tzNDNn?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMickFVX3lxTE90OFRKOHNXRERlY3JQRXVYWXU2cmJuRU8zX1RWd3lhalJOTHI1WXVfZmNvRS1Sa0JWeVNHbWVLQkxBa0dQLS1qRmhVR1Jna2d5MGxJd3RyR3hCajVLa1N6MS03bFpwMWtBU0VlTVNrT0FwUQ?oc=5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2166,34 +2166,34 @@
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>무역구제</t>
+          <t>수출통제</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’ - 전기신문</t>
+          <t>[단독] 희토류 中 의존도 낮춘다…靑 현대차 등 기업과 비공개 회동 - 네이트</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’&amp;nbsp;&amp;nbsp;전기신문</t>
+          <t>[단독] 희토류 中 의존도 낮춘다…靑 현대차 등 기업과 비공개 회동&amp;nbsp;&amp;nbsp;네이트</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Thu, 19 Feb 2026 01:26:07 GMT</t>
+          <t>Thu, 19 Feb 2026 21:05:00 GMT</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicEFVX3lxTE9nQTlYTE1vb1RlanVBS1VLa3pFVXJVY3NOTGIxb1hCWFE4QzY3VDVxa2VDcDhzcGxjMVI1aU11Y2pOWFpzazhRTGJCUnNseUl6dWo1Qjh0eTRXQ2hUUGN0Z182eEZ3aHRFMVlFdHItcXnSAXBBVV95cUxPZ0E5WExNb29UZWp1QUtVS2t6RVVyVWNzTkxiMW9YQlhROEM2N1Q1cWtlQ3A4c3BsYzFSNWlNdWNqTlhac2s4UUxiQlJzbHlJenVqNUI4dHk0V0NoVFBjdGdfNnhGd2h0RTFZRXRyLXF5?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU0FVX3lxTE1ETTg2R3BOS2ZmWnFIbWlOT2NKYWZEM3hteUxTMXdpVS1IdF9WUm9PbWxZVE0zSU1TLWxNNnJHdUptaWdleHA4OXNSV0dDOTI0b0RZ?oc=5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2206,6 +2206,80 @@
         <v>1</v>
       </c>
       <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>수출통제</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈 - Chosunbiz</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[강세 토픽] 희토류 테마, 그린리소스 +5.13%, 쎄노텍 +4.14% - 조선비즈&amp;nbsp;&amp;nbsp;Chosunbiz</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Thu, 19 Feb 2026 03:17:08 GMT</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMigwFBVV95cUxNWDdoTGg4NjIxQk5pbmptb0NuM2RXeW9XTklBTzdqMGlDWWJaQlVwdjJUejY5NnJmd0RMeWprYVZYSDZldEROemNzUTRfakpKcVFfeG5tWTRmWVdUWERXXy0yRTJGSmlLbW5oTm9lWHlnNEg1YmlIVERvdDR5dVBObzRra9IBlwFBVV95cUxONjZzbHNjYU1WT2pxZ3FtVFkzUWpUQU9ZRVk3QlR3ejNQT3g4cG1pOHVaSHo1N0ZFOXROTVRFWkFPcy0zSjBZOElUUU1sM2dWaUpTOUxma2xxTXpTNFJGb0Q5bVg5Y19LQVNUQ0tSSW9PZWVzUzNpNjB2S1Y0TExqVVFBSlNFNERaV1RuRkprM0xQM2tzNDNn?oc=5</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>무역구제</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’ - 전기신문</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>‘이유도, 명분도 없는 美의 변압기 반덤핑 조사를 언제까지’&amp;nbsp;&amp;nbsp;전기신문</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Thu, 19 Feb 2026 01:03:46 GMT</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFByWllBOFkyalNtTlhoTk80RzcwT2ZpT1RYM2p3WWdYMERYdExfSjM5dC1GM08tN0d5S25RSVpaelp3UmNfcmIwSTYwVjhvdlpCT0ZtZkZSbUczeWpXOWhKM1hiRnNVbHVPMVhnbNIBcEFVX3lxTE9nQTlYTE1vb1RlanVBS1VLa3pFVXJVY3NOTGIxb1hCWFE4QzY3VDVxa2VDcDhzcGxjMVI1aU11Y2pOWFpzazhRTGJCUnNseUl6dWo1Qjh0eTRXQ2hUUGN0Z182eEZ3aHRFMVlFdHItcXk?oc=5</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>하</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
